--- a/gamdong.xlsx
+++ b/gamdong.xlsx
@@ -29,12 +29,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffff99"/>
+        <bgColor rgb="00ffff99"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,10 +61,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,58 +446,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="100" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>제목</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>날짜</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>시간</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>내용</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>사내 행사 기념품 및 선물 제안</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>2023.02.23.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>13:07</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">사내행사 기념품/경품/선물 제안서 부탁드립니다.
 개당 가격은 3만원대~10만원대로 각 행사 성격이나 인원수에 따라 다양하게 생각하고 있습니다.
@@ -485,58 +513,58 @@
 rkdwndud23@naver.com </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/758523</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>졸업예정 신입사원 선물</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>2023.02.20.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>15:19</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>졸업예정인 신입사원 선물로 아래와 같이 준비하려고 하는데 너무 약소할까요?
 산업기능요원(보충역)으로 입사했는데 학교가 거리가 좀 멀어서 꽃돌이, 꽃순이는 어렵고 졸업일 하루 전에 선물 지급하려고 합니다.
 꽃다발 + 스벅 쿠폰 (총 예산 5만원선)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/757927</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>창립행사 기념품 문의</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>2023.02.20.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>13:48</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>안녕하세요
 3월에 창립행사를 준비하고 있는 수원 광교에 있는 담당자 입니다.
@@ -550,29 +578,29 @@
 jybae0327@naver.com</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/757877</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>창립기념일 선물 제안 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>2023.02.20.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>12:31</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">안녕하십니까, 안양에 위치한 사업장이며 4월에 창립기념일을 앞두고 있습니다.
 관련하여 창립기념일 선물 지급품을 선정중에 있으며 
@@ -585,58 +613,58 @@
 감사합니다. </t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/757859</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>창립기념일 선물 추천 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>2023.02.16.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>16:43</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>임직원 100명 정도 되는 회사입니다.
 창립기념일 선물 좀 추천 부탁드립니다.
 이메일 : nighttt@naver.com</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/757496</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>창립 10주년 기념일 선물 추천 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>2023.02.15.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>22:21</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>안녕하세요!
 저는 현재 약 100인 규모의 중소기업에서 근무하고 있습니다.
@@ -646,29 +674,29 @@
 괜찮은 제품이 있다면 추천 부탁드리겠습니다. 감사합니다!</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/757330</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>창립기념일 프로그램 제안 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>2023.02.15.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>22:09</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>안녕하세요!
 저희 회사는 약 100명 규모의 중소기업이며, 상반기에 10주년을 맞이하여 창립기념일 행사를 진행하려고 합니다.
@@ -679,58 +707,58 @@
 wldbs9827@naver.com</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/757329</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>창립기념일 선물 추천 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>2023.02.15.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>17:31</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>안녕하세요.
 저희가 이번에 창립기념일 선물을 준비하려고 하는데 선물 추천 부탁드립니다.
 개수는 160개이고, 금액대는 8-10만원대 생각하고 있습니다!</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/757302</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>회사 직원들 기념품으로 트레이닝복 견적 받고싶습니다.</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>2023.02.14.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>13:29</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>인원은 대락 650명정도이며
 인원은 1인당 20만원(vat별도) 생각하고 있습니다.
@@ -739,29 +767,29 @@
 kuk9876@naver.com으로 견적 부탁드립니다.</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/757014</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>창립기념 선물 제안 요청드립니다.</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>2023.02.13.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>17:03</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>안녕하세요
 창립기념 임직원 선물 제안 요청드립니다.
@@ -771,29 +799,29 @@
 * skyblue2513@naver.com</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/756849</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>회사 창립 50주년 기념일 선물 추천 부탁드립니다!</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>2023.02.13.</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>09:20</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>안녕하세요. 
 저는 약 400명이 근무하고 있는 제조업 회사에 근무하고 있습니다. 
@@ -805,29 +833,29 @@
 메일주소 : jinwoo.kim@tdk.com</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/756678</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>창립기념일 기념품 문의</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>2023.02.10.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>17:36</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">창립 기념일 기념품 문의드립니다. 
 인원은 30~40명 정도고 외부 선물용까지 생각해서 대략 200개 정도 생각하고 있습니다. 
@@ -835,29 +863,29 @@
 seung3545@naver.com으로 견적주시면 감사하겠습니다. </t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/756573</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>04월 체육대회 레크레이션 행사 의뢰합니다.</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>2023.02.09.</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">안녕하세요 
 체육대회 레크레이션 행사 견적 문의드립니다. 
@@ -871,29 +899,29 @@
 감사합니다. </t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/756368</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>회사에 행사로 인해 선물세트 추천 부탁드려요</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>2023.02.08.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>18:37</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t>이번에  저희 회사에 행사가 있는데
 4월 초에 필요합니다.
@@ -904,29 +932,29 @@
 포장 예시 사진도 있으시면 같이 부탁드릴께요. noppe77@hanmail.net으로 부탁드립니다.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/756144</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>창립10주년 행사 및 프로그램 추천 제안 부탁드립니다.(100~150명)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>2023.02.08.</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>13:38</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>안녕하세요?
 표제와 같이 창립 10주년 행상 및 프로그램 추천 제안 부탁드립니다.
@@ -937,29 +965,29 @@
 197donghoro@naver.com</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/756028</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>체육대회 행사 의뢰</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>2023.02.08.</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>13:31</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>안녕하세요. 직원 180명 규모의 여의도에 위치한 중소기업 입니다. 
 체육대회 행사대관 및 버스대절, 용품대여를 의뢰 합니다. 
@@ -976,29 +1004,29 @@
 rebe29@bridgetec.co.kr / 경영지원팀</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/756024</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>기념품 제안 요청</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>2023.02.07.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>14:13</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>안녕하세요. 저희 기관에서 기념품을 제작하고자 합니다.
 대상은 내빈(시민) 대상 지급하고자 하는데
@@ -1006,57 +1034,57 @@
 제안 주실 분 찾습니다.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/755786</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>발렌타인 직원 서프라이즈 선물 뭐가 좋을까요</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>2023.02.03.</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>13:03:00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>이벤트성 선물 지급하려고 하는데
 추천해주세요</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/755250</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>창립기념일 행사 제안 부탁드려요</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>2023.02.02.</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>15:33:00</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>회사 창립기념 10주년 행사를 해보려고 합니다
 창립기념행사는 처음이라 어떤걸 준비해야할지 막막해서요
@@ -1066,29 +1094,29 @@
 감사합니다.</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/755083</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>승진자 대상 선물 기획</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>2023.01.31.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>17:08:00</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">안녕하세요. 
 승진자 대상 축하 선물 기획 중인데요. 
@@ -1097,29 +1125,29 @@
 미리 감사드립니다. </t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/754707</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>다이어리 제작 및 기업Giveaway 업체추천</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>2023.01.30.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>13:29:00</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>안녕하세요! 다이어리랑 회사 기념품 문의드립니다.
 다이어리는 50부(24년에는 100~150개제작예상)
@@ -1128,29 +1156,29 @@
 디자인 및 퀄리티 좋은 아이템으로 제작하고자 합니다.</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/754413</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>창립기념일 선물 제안요청드립니다.</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>2023.01.29.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>15:13:00</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t>창립기념일 선물 제안요청 드립니다.
  1. 가격대 : 5 만원대
@@ -1158,29 +1186,29 @@
 soho1129@naver.com 으로 제안서부탁드리겠습니다.</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/754284</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>[생일] 직원 생일선물 제안 부탁드립니다</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>2023.01.26.</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>22:39:00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>직원 생일선물 제안 부탁드립니다.
 직원수는 25명입니다. 주로 30대입니다.
@@ -1190,29 +1218,29 @@
 mtmdc@mtmdc.co.kr 입니다.</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/754027</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>종근당 상품(락토핏 선물세트)을 임직원 생일선물로 구매하고자하는데요</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>2023.01.26.</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>17:14:00</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">원래 진행하기로 했던 업체가 펑크를 내서요 대체 할 업체를 찾고 있습니다 
 품목 :종근당 락토핏 골드 선물세트 (300g, 50포*3입)
@@ -1222,29 +1250,29 @@
 감사합니다. </t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/753988</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>회사 굿즈 구매 문의</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>2023.01.26.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>10:44:00</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>근로자의날이나 할로윈 크리스마스같은날 무슨날인지 티 팍팍나면서
 회사 직원들에게 회사 로고가 박힌 굿즈선물을 준비하려는데요
@@ -1252,58 +1280,58 @@
 제작예정은 100개 내외입니다~</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/753869</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>창립기념일 선물 제안부탁드립니다.</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>2023.01.25.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>15:59:00</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>인원은 120여명 정도이며
 인당 5-10만원 사이로 생각하고 있습니다. 
 5,7,10만원 단위로 각 금액별 선물을 제안 부탁드립니다.</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/753734</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>기념품 구입 문의</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>2023.01.25.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>13:19:00</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>스타벅스 스텐리 아이슬란드(초록색) 약 300개 구매합니다.
 선물포장 포함해서요
@@ -1314,29 +1342,29 @@
 naver.com</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/753678</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>투자설명회 기념품 추천 및 견적 부탁드립니다~!</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>2023.01.21.</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>00:42:00</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">예비투자자 대상으로 소형 투자설명회(약 30명 규모)를 진행합니다.
 기념품 추천 및 견적 부탁드립니다~!
@@ -1344,29 +1372,29 @@
 이곳에서 항상 도움을 많이 받아서 한번 여쭙습니다~! </t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/753490</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>정규직 전환 선물 제안 받습니다</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>2023.01.19.</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>18:01:00</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>안녕하세요.
 이번에 신입사원이 아니라, 신입사원 중 정규직으로 전환된 직원분을 대상으로 선물을 발송하려 합니다.
@@ -1375,57 +1403,57 @@
 감사합니다.</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/753304</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>채용박람회 기념품 제안부탁드립니다.</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>2023.01.18.</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>11:07:00</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t>만원이하 선에서 나눠줄만한 기념품 제안서
 쪽지나 메일로 부탁드립니다~!</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752938</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>저렴한(?) 명절 선물 세트 어떤걸로 하면 좋을까요~? (약 200명)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>2023.01.17.</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>18:38:00</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">안녕하세요.
 업종상 파트타임 아르바이트 직원분들이 많아서요,
@@ -1435,86 +1463,86 @@
 괜찮은 곳 알고 계시면 소개 부탁드립니다!! </t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752824</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>창립기념일 선물</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>2023.01.17.</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>11:10:00</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t>창립기념일 선물 제안서 요청드립니다!
 dicky501@naver.com</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752661</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>설 LA갈비 거래처선물</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>2023.01.16.</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>14:19:00</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" s="6" t="inlineStr">
         <is>
           <t>LA갈비 10만원선으로 거래처 5군데정도 할만한곳 제안부탁드립니다. 대량이아니라도 상관없는 업체 문의드려요^^
 -------------------------
 업체제안 감사합니다.</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752489</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>금일 동원선물셋트 2만~3만 사이 90셋트 출고 가능하신분 연락부탁드립니다.</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>2023.01.16.</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>12:07:00</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" s="6" t="inlineStr">
         <is>
           <t>금일 동원선물셋트 2만~3만 사이 90셋트 출고 가능하신분 연락부탁드립니다.
 품목 5개 미만 그림 리스트 보내주시고면 바로 연락드립니다.
@@ -1522,58 +1550,58 @@
 바로 연락 바랍니다.</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752454</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>설 선물</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>2023.01.16.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>10:10:00</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" s="6" t="inlineStr">
         <is>
           <t>안녕하세요 인원은 40명 정도 되구요
 예산은 30,000원 ~ 40,000원 정도로 생각하고 있는데
 어떤 거로 준비하면 좋을까요?ㅜㅜ</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752419</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>긴급 설 명절 선물셋트 제안서 요청</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>2023.01.16.</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t>10:01:00</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="6" t="inlineStr">
         <is>
           <t>안녕하세요
 부산에 있는 업체입니다. 직원용, 협력업체 거래처용, 투자자 거래처용 선물셋트 견적 부탁드립니다.
@@ -1581,29 +1609,29 @@
 yk961243@naver.com</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752415</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>모바일 신세계 상품권 견적 문의</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>2023.01.16.</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>08:50:00</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t>안녕하세요,
 설명절 선물로 임직원분들에게 신세계 상품권을 발송하려고 합니다.
@@ -1614,29 +1642,29 @@
 감사합니다 :)</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752401</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>올해 거래처 명절선물로 김을 보내려 하는데 고급브랜드 추천부탁드립니다.</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>2023.01.13.</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>16:36:00</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" s="6" t="inlineStr">
         <is>
           <t>매년 다른종류의 명절선물을 거래처로 보내고 있습니다.
 올 설에는 김 선물세트를 보내기로 결정을 했는데요. 
@@ -1645,29 +1673,29 @@
 감사합니다.</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752284</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>동원제품 선물세트 견적서 받고싶습니다</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>2023.01.13.</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>16:14:00</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="6" t="inlineStr">
         <is>
           <t>수량 30~35개
 동원참치 단100호,동원 리챔6호 각각 1박스씩
@@ -1676,29 +1704,29 @@
 -타제품 제안서는 불필요합니다-</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752275</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>설선물 대행업체를 찾고 있습니다</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>2023.01.13.</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>14:11:00</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" s="6" t="inlineStr">
         <is>
           <t>안녕하세요
 설이 얼마 남지 않아서, 진행업체를 찾고 있습니다
@@ -1709,29 +1737,29 @@
 hbw4669@bizmeka.com</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752229</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>모바일 신세계 상품권 견적 문의</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>2023.01.13.</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>12:40:00</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" s="6" t="inlineStr">
         <is>
           <t>안녕하세요,
 설명절 선물로 임직원분들에게 신세계 상품권을 발송하려고 합니다.
@@ -1742,29 +1770,29 @@
 감사합니다 :)</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752207</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>구정 명절 홍삼 선물 제안서 요청</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>2023.01.13.</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>12:17:00</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" s="6" t="inlineStr">
         <is>
           <t>안녕하세요.
 이번에 구정 명절 거래처 선물로 홍삼 선물을 검토 중에 있습니다.
@@ -1772,29 +1800,29 @@
 혹시 제안서 보내주실 분 계시면, qazedx85@hanmail.net 으로 부탁드려요.</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752203</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>명절선물세트 제안서 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>2023.01.13.</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>11:46:00</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" s="6" t="inlineStr">
         <is>
           <t>명절선물 약 100개정도 4 ~ 6만원 정도로 구성 되어있는 제품으로 구매 예정입니다.
 어떤 종류의 제품을 고를지 픽스는 안되었고, 종류별로 보내주시면 검토 후 연락 드리겠습니다.
@@ -1802,195 +1830,195 @@
 rjswn6279@naver.com</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752195</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>명절 설 선물세트 제안서 부탁드려도 될까요?</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>2023.01.13.</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>10:39:00</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" s="6" t="inlineStr">
         <is>
           <t>1인당 10만원 내외로 30개 생각하고 있습니다. 제안서 보내주시면 검토 후 연락드리겠습니다! 
 wm_biz@naver.com 결정이 되면 이 글은 삭제하겠습니다.</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752173</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>설명절선물 제안서 요청드립니다.</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>2023.01.13.</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>09:00:00</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" s="6" t="inlineStr">
         <is>
           <t>10인기업입니다. 거래처와 직원들 선물로 10만원이하 제안 요청드립니다!
 감사합니다.</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752151</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>거래처 명절 선물 15만원 내외 제안 부탁드려요</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>23:56:00</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" s="6" t="inlineStr">
         <is>
           <t>거래처 명절 선물 15만원 내외 제안 부탁드려요.
 15만원에서 20만원까지 보고 있고 가격 대비 품격 있고 알찬 구성 원합니다. 수량은 40~50개입니다. yourcube@gmail.com</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752134</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>설선물 리스트 공유 부탁드립니다ㅠㅠ</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>17:57:00</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" s="6" t="inlineStr">
         <is>
           <t>금액대는 50000 정도 생각하고 있어요! 거래처에 보낼거라 고르기 너무 어렵네요ㅠㅠ</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752102</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>명절 선물세트 제안서 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>17:40:00</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" s="6" t="inlineStr">
         <is>
           <t>csaeil77@naver.com</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752096</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>명절 선물세트</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>17:23:00</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" s="6" t="inlineStr">
         <is>
           <t>혹시 스팸으로 배송비 포함해서 5만원정도 제안부탁드립니다
 neversun82@naver.com</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752091</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>총회 기념품 제안부탁드립니다.</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>17:18:00</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" s="6" t="inlineStr">
         <is>
           <t>2월 초에 드릴 예정이고요
 5만원 상당으로 200개 정도 필요합니다.
@@ -1998,87 +2026,87 @@
 메일주소 : skkkts@naver.com</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752085</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>설선물 추천 부탁드립니다. (5만원 이내)</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>16:10:00</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" s="6" t="inlineStr">
         <is>
           <t>안녕하세요. 저희는 15인정도 되는 스타트업인데 임직원 설선물 인당 5만원 이내로 알아보고 있습니다. 
 IT 스타트업인만큼 너무 고전적인 선물보다는 뭔가 세련된게 있으면 좋겠네요. 
 선물 추천 부탁드립니다!</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752058</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="4" t="inlineStr">
         <is>
           <t>명절선물 제안 요청드려요.</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="4" t="inlineStr">
         <is>
           <t>15:45:00</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" s="6" t="inlineStr">
         <is>
           <t>10~20만원대 4개
 3~7만원대 21개 구입예정입니다. 
 sunnylove2020@naver.com 으로 제안 부탁드립니다.</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752051</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>명절선물 제안 요청</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>15:41:00</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" s="6" t="inlineStr">
         <is>
           <t>안녕하세요 23년도 구정 설에 직원들에게 지급할 선물세트 알아 보는 중입니다.
 인원: 40명 
@@ -2087,87 +2115,87 @@
 부탁 드리겠습니다.</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752049</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>명절선물세트 제안서 부탁드립니다.(완료)</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>15:07:00</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" s="6" t="inlineStr">
         <is>
           <t>20~30만원 수준으로
 4개 주문할 예정입니다.
 메일 부탁드립니다.</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752035</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>개업 2주념 사은품 , 기념품 제안 부탁드리겠습니다</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>14:21:00</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" s="6" t="inlineStr">
         <is>
           <t>가격대는 5만원까지로 300개 예상입니다
 gsmost@naver.com 메일로 제안 부탁드립니다
 감사합니다</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752016</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>설 선물 세트 제안 부탁드립니다!</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>13:24:00</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" s="6" t="inlineStr">
         <is>
           <t>안녕하세요! 
 23년도 설 선물 세트 제안 부탁드립니다.
@@ -2177,29 +2205,29 @@
 감사합니다. 새해 복 많이 받으세요 : )</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751988</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="4" t="inlineStr">
         <is>
           <t>생활용품 선물세트 전문으로 취급하시는 분 계신가요?</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="4" t="inlineStr">
         <is>
           <t>13:10:00</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" s="6" t="inlineStr">
         <is>
           <t>LG 생활건강 설 선물세트 처럼
 생활용품 선물세트 전문으로 취급하시는 분 계신가요??..
@@ -2207,29 +2235,29 @@
 20-30인 중소기업입니다.</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E58" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751985</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>명절 선물 제안 부탁드립니다</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>11:05:00</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" s="6" t="inlineStr">
         <is>
           <t>안녕하세요.
 신선식품 제외한 명절 선물 제안 부탁드립니다.
@@ -2241,29 +2269,29 @@
 감사합니다.</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751955</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="4" t="inlineStr">
         <is>
           <t>명절 선물 제안 부탁합니다.</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="4" t="inlineStr">
         <is>
           <t>10:18:00</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" s="6" t="inlineStr">
         <is>
           <t>안녕하세요 
 직원 선물용으로 준비하려고  합니다.
@@ -2271,29 +2299,29 @@
 인당  20,000 ~ 50,000원 선에서 골랐으면 합니다.</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751940</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="4" t="inlineStr">
         <is>
           <t>명절 선물 제안 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="4" t="inlineStr">
         <is>
           <t>09:35:00</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" s="6" t="inlineStr">
         <is>
           <t>안녕하세요
 명절 선물 제안 부탁드립니다.
@@ -2304,29 +2332,29 @@
 새해 복 많이 받으세요~!</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751921</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="4" t="inlineStr">
         <is>
           <t>명절선물 2~5만원대 제안 요청드립니다.</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="4" t="inlineStr">
         <is>
           <t>05:36:00</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" s="6" t="inlineStr">
         <is>
           <t>명절선물 2~5만원대 제안 요청드립니다.
  직원 및 선물용 80~100개 내외로 구매할려고 합니다.
@@ -2336,29 +2364,29 @@
  꼭 필요하신 연락은 010-삼542-189팔 로 부탁드립니다.</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E62" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751897</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="4" t="inlineStr">
         <is>
           <t>명절 선물 제안 부탁합니다.</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="5" t="inlineStr">
         <is>
           <t>2023.01.12.</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="4" t="inlineStr">
         <is>
           <t>03:19:00</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">안녕하세요.
 직원 및 거래처 선물용으로 준비하려고 합니다.
@@ -2370,29 +2398,29 @@
 -- 메일이 많이 와서 메일 삭제하였습니다. -- </t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751896</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="4" t="inlineStr">
         <is>
           <t>설명절 선물 어디서 구매하시나요?</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="5" t="inlineStr">
         <is>
           <t>2023.01.11.</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="4" t="inlineStr">
         <is>
           <t>18:45:00</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" s="6" t="inlineStr">
         <is>
           <t>안녕하세요.
 제목 그대로 문의드립니다..
@@ -2401,29 +2429,29 @@
 구매업체 공유해주시면 감사하겠습니다.</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751876</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="4" t="inlineStr">
         <is>
           <t>기념일 선물 발송</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="5" t="inlineStr">
         <is>
           <t>2023.01.11.</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" s="4" t="inlineStr">
         <is>
           <t>18:42:00</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">안녕하세요.
 40명 정도 근무하는 중소기업인데, 결혼기념일에 꽃다발,케익,상품권을 배송해야 하는데
@@ -2432,29 +2460,29 @@
 아시는 업체 있으시면 추천좀.. 부탁드립니다. </t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751875</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="4" t="inlineStr">
         <is>
           <t>거래처 명절선물 세트 제안서 요청드립니다.</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="5" t="inlineStr">
         <is>
           <t>2023.01.11.</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="4" t="inlineStr">
         <is>
           <t>17:40:00</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" s="6" t="inlineStr">
         <is>
           <t>안녕하세요.
 거래처 명절선물 세트 제안서 요청드립니다.
@@ -2467,29 +2495,29 @@
 감사합니다.</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E66" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751863</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="4" t="inlineStr">
         <is>
           <t>거래처 명절 선물세트 추천 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="5" t="inlineStr">
         <is>
           <t>2023.01.11.</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="4" t="inlineStr">
         <is>
           <t>16:10:00</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D67" s="6" t="inlineStr">
         <is>
           <t>안녕하세요. 매년 2번씩하는 고민이네요..
 명절 선물 세트 뭐로들 하시나요?
@@ -2498,116 +2526,116 @@
 감사합니다.</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E67" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751832</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="4" t="inlineStr">
         <is>
           <t>명절선물 (홍삼) 카탈로그 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="5" t="inlineStr">
         <is>
           <t>2023.01.11.</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="4" t="inlineStr">
         <is>
           <t>16:07:00</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" s="6" t="inlineStr">
         <is>
           <t>보내는 인원 40명입니다. 
 홍삼 관련 카탈로그 부탁드려요!
 jhn77777@naver.com 으로 부탁드리겠습니다!</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E68" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751831</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="4" t="inlineStr">
         <is>
           <t>명절선물 제안부탁이요(식용유 스팸 참치등 가공관련)</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="5" t="inlineStr">
         <is>
           <t>2023.01.11.</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="4" t="inlineStr">
         <is>
           <t>15:48:00</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" s="6" t="inlineStr">
         <is>
           <t>안녕하세요 직원 선물 관련하여 위의 종류에 대한 
 제안서 부탁드립니다.
 수고하세요...</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E69" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751821</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="4" t="inlineStr">
         <is>
           <t>거래처 선물 어떤게 좋을까요?</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="5" t="inlineStr">
         <is>
           <t>2023.01.11.</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="4" t="inlineStr">
         <is>
           <t>14:57:00</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" s="6" t="inlineStr">
         <is>
           <t>거래처 병원이 개원 1주년입니다.
 축하 메세지가 있는 난 정도면 무난할 듯 한데요..
 회원님들은 보통 어떤 선물 하시는지 궁금하네요~</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751806</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="4" t="inlineStr">
         <is>
           <t>명절 선물 제안 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="5" t="inlineStr">
         <is>
           <t>2023.01.11.</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="4" t="inlineStr">
         <is>
           <t>14:44:00</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" s="6" t="inlineStr">
         <is>
           <t>올해 설 선물 세트 제안 부탁드립니다~
 금액은 대략 ~100,000, max 130,000정도로 생각하고 있고
@@ -2615,58 +2643,58 @@
 rob721@naver.com으로 메일 부탁드릴게요.</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751797</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="4" t="inlineStr">
         <is>
           <t>창립기념일 선물 제안 부탁드려요.</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="5" t="inlineStr">
         <is>
           <t>2023.01.11.</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" s="4" t="inlineStr">
         <is>
           <t>14:21:00</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" s="6" t="inlineStr">
         <is>
           <t>창립기념일 선물 제안 부탁드립니다.
 가격대는3만원대 생각하고 있어요 
 수량 40~</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E72" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751786</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="4" t="inlineStr">
         <is>
           <t>설날 선물세트 제안 요청드립니다.</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="5" t="inlineStr">
         <is>
           <t>2023.01.11.</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" s="4" t="inlineStr">
         <is>
           <t>14:13:00</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" s="6" t="inlineStr">
         <is>
           <t>안넝하세요. 다들 새해 복 많이 받으세요!
 2023년도 설날 선물세트 제안 요청드립니다.
@@ -2676,87 +2704,87 @@
 감사합니다!</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E73" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751782</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="4" t="inlineStr">
         <is>
           <t>명절선물 전자제품!!! 추천 부탁드려요</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="5" t="inlineStr">
         <is>
           <t>2023.01.11.</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" s="4" t="inlineStr">
         <is>
           <t>13:30:00</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D74" s="6" t="inlineStr">
         <is>
           <t>25~29명정도 되는 중소기업입니다.
 명절 선물로 10만원 안쪽의 생활전자제품을 하려고합니다.
 추천부탁드립니다.!!!</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E74" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751769</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="4" t="inlineStr">
         <is>
           <t>설 명절 선물세트</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="5" t="inlineStr">
         <is>
           <t>2023.01.11.</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="4" t="inlineStr">
         <is>
           <t>13:06:00</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" s="6" t="inlineStr">
         <is>
           <t>60~70세트 정도 필요 예정인데요, 
 25000~30000원 선에서 제안서 보내주실 업체 계신가요? 
 leerohmin@naver.com입니다</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E75" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751763</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="4" t="inlineStr">
         <is>
           <t>설 선물 - 백화점 상품권 제안</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="5" t="inlineStr">
         <is>
           <t>2023.01.11.</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="4" t="inlineStr">
         <is>
           <t>11:57:00</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D76" s="6" t="inlineStr">
         <is>
           <t>안녕하세요.
 설 선물로 백화점 상품권 5만원권 지급하려고 합니다.
@@ -2765,29 +2793,29 @@
 감사합니다.</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E76" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751749</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="4" t="inlineStr">
         <is>
           <t>명절 선물세트</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="5" t="inlineStr">
         <is>
           <t>2023.01.11.</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="4" t="inlineStr">
         <is>
           <t>11:30:00</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" s="6" t="inlineStr">
         <is>
           <t>명절 선물세트 해마다 고민이 되네요..
 결과적으로는 거의 고기 선물세트를 하는데 올해는 또 어떤 제안을 해야하는지..
@@ -2795,29 +2823,29 @@
 제안 부탁드려요..!</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751740</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="4" t="inlineStr">
         <is>
           <t>명절선물세트 100인 정도 진행관련 문의 드립니다.</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="5" t="inlineStr">
         <is>
           <t>2023.01.11.</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="4" t="inlineStr">
         <is>
           <t>09:17:00</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D78" s="6" t="inlineStr">
         <is>
           <t>안녕하십니까 제목과 관련하여 팜플렛 문의 드립니다.
 시간이 급한만큼 빠르게 진행되었으면 좋겠고
@@ -2825,87 +2853,87 @@
 hyunni486@naver.com 이쪽으로 메일 부탁드립니다.</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751690</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="4" t="inlineStr">
         <is>
           <t>80인 정도 명절 선물 세트 배송되는게 있나요?</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="5" t="inlineStr">
         <is>
           <t>2023.01.10.</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="4" t="inlineStr">
         <is>
           <t>17:22:00</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D79" s="6" t="inlineStr">
         <is>
           <t>80인 정도 선물 세트 배송되는 곳이 있을가요?
 올해는 비싼건 못할거 같고 3~4만원 정도 선에서 정해야될거같아서요
 glanu@goldn.co.kr 로 메일 부탁드립니다~</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751631</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="4" t="inlineStr">
         <is>
           <t>설명절선물 제안 요청합니다~</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="5" t="inlineStr">
         <is>
           <t>2023.01.10.</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="4" t="inlineStr">
         <is>
           <t>17:10:00</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" s="6" t="inlineStr">
         <is>
           <t>순천 율촌산단에 위치해있는 제조업 업체입니다!
 약 10곳~20곳 보낼 예정입니다
 금액대는 30,000원 ~ 35,000원 이며 제안요청 부탁드리겠습니다~~</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751628</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="4" t="inlineStr">
         <is>
           <t>명절 선물 제안 요청드립니다.</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="5" t="inlineStr">
         <is>
           <t>2023.01.10.</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="4" t="inlineStr">
         <is>
           <t>15:51:00</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D81" s="6" t="inlineStr">
         <is>
           <t>안녕하세요.
 명절 거래처 선물 제안 요청드립니다.
@@ -2917,29 +2945,29 @@
 감사합니다.</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751602</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="4" t="inlineStr">
         <is>
           <t>명절선물제안</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="5" t="inlineStr">
         <is>
           <t>2023.01.10.</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="4" t="inlineStr">
         <is>
           <t>15:27:00</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" s="6" t="inlineStr">
         <is>
           <t>20인정도 사업장입니다. 
 명절선물 제안 부탁드립니다!
@@ -2948,58 +2976,58 @@
  많은 분들이 메일을 보내주셔서 메일주소는 삭제하겠습니다 ^^ 감사합니다.</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E82" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751598</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="4" t="inlineStr">
         <is>
           <t>20인 명절선물 어떤게 좋을까요?</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="5" t="inlineStr">
         <is>
           <t>2023.01.10.</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="4" t="inlineStr">
         <is>
           <t>14:45:00</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D83" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3만원 이하로 생각하고 있는데...
  제안,추천 부탁드립니다!! 
  delight_sy@naver.com</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751576</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="4" t="inlineStr">
         <is>
           <t>명절선물 제안부탁드립니다.</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="5" t="inlineStr">
         <is>
           <t>2023.01.10.</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="4" t="inlineStr">
         <is>
           <t>14:34:00</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D84" s="6" t="inlineStr">
         <is>
           <t>안녕하세요.
 구정 직원선물 제안 부탁드립니다. (100명)
@@ -3007,29 +3035,29 @@
 감사합니다.</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E84" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751567</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="4" t="inlineStr">
         <is>
           <t>안녕하세요. `23년 설을 맞아 선물세트 소소하게 여쭤봅니다.</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="5" t="inlineStr">
         <is>
           <t>2023.01.10.</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="4" t="inlineStr">
         <is>
           <t>13:06:00</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D85" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">처음으로 직원들 명절 선물을 하게 되었습니다. 
 소규모(30인)지만 어떤 상품들이 있는지 궁금하여 알아보고 싶네요. 
@@ -3038,86 +3066,86 @@
 새해 복 많이 받으세요. </t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E85" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751538</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="4" t="inlineStr">
         <is>
           <t>명절선물세트 제안받습니다. 100여명</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="5" t="inlineStr">
         <is>
           <t>2023.01.10.</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="4" t="inlineStr">
         <is>
           <t>12:53:00</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" s="6" t="inlineStr">
         <is>
           <t>안녕하세요, 100여명 업체인데 명절 선물 식품류로 제안 받습니다.
 참치,스팸,어묵,굴비,버섯등 식품류로 엑셀시트 및 PPT로 메일 회신 해주시면 감사드리겠습니다.
 jskly21c@naver.com</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751537</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="4" t="inlineStr">
         <is>
           <t>명절 선물 세트 제안 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="5" t="inlineStr">
         <is>
           <t>2023.01.10.</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C87" s="4" t="inlineStr">
         <is>
           <t>12:50:00</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D87" s="6" t="inlineStr">
         <is>
           <t>개수는 60여개 정도 주문 예정입니다. 
 가격대는 10만원내 외로 보고 있습니다.</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E87" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751536</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="4" t="inlineStr">
         <is>
           <t>명절 선물 제안 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="5" t="inlineStr">
         <is>
           <t>2023.01.10.</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="4" t="inlineStr">
         <is>
           <t>11:29:00</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">안녕하세요.
 5만원대 선물 제안 부탁드립니다.
@@ -3128,29 +3156,29 @@
 검토 후 연락드리도록 하겠습니다. </t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E88" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751513</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="4" t="inlineStr">
         <is>
           <t>설날 명절선물세트 제안 부탁드립니다(5만원내)</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="5" t="inlineStr">
         <is>
           <t>2023.01.10.</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="4" t="inlineStr">
         <is>
           <t>11:29:00</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">안녕하세요. 
 설날 선물제트 제안 부탁드립니다. 
@@ -3158,29 +3186,29 @@
 모두들 새해 복 많이 받으세요!! </t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E89" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751512</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="4" t="inlineStr">
         <is>
           <t>스타트업 스러운 신선한 명절선물 추천 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="5" t="inlineStr">
         <is>
           <t>2023.01.10.</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="4" t="inlineStr">
         <is>
           <t>08:57:00</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" s="6" t="inlineStr">
         <is>
           <t>안녕하세요.
 규모가 작은 기업이신 분들은 임직원들에게
@@ -3191,57 +3219,57 @@
 감사하고 풍요로운 한해 맞이하시길 바랍니다 :)</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751451</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="4" t="inlineStr">
         <is>
           <t>명절 선물 제안부탁드립니다.</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="5" t="inlineStr">
         <is>
           <t>2023.01.10.</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C91" s="4" t="inlineStr">
         <is>
           <t>08:45:00</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D91" s="6" t="inlineStr">
         <is>
           <t>금액은 20-25만원선으로 약 15개 - 20개 사이입니다. 
 chm60@osungam.com 으로 부탁드립니다.</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E91" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751448</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="4" t="inlineStr">
         <is>
           <t>[완료] 명절 선물 리스트 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="4" t="inlineStr">
         <is>
           <t>23:46:00</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" s="6" t="inlineStr">
         <is>
           <t>안녕하세요.
 매년 여기에서 제안해 주신 업체들 중에 선정하여 설날 선물을 준비하고 있습니다.
@@ -3255,29 +3283,29 @@
     새해 복 많이 받으세요.</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751431</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="4" t="inlineStr">
         <is>
           <t>설 선물세트 제안 요청드립니다. (~5만원)</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="4" t="inlineStr">
         <is>
           <t>18:20:00</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D93" s="6" t="inlineStr">
         <is>
           <t>안녕하세요, 설 선물세트 제안 요청드립니다.
 수량 : 70개 예정
@@ -3286,29 +3314,29 @@
 감사합니다~!</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E93" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751401</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="4" t="inlineStr">
         <is>
           <t>설 선물 세트 제안 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="4" t="inlineStr">
         <is>
           <t>16:33:00</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D94" s="6" t="inlineStr">
         <is>
           <t>안녕하세요,
 설 선물세트를 준비하고있는데 추천 및 제안 부탁드립니다.
@@ -3317,113 +3345,113 @@
 jse101010@naver.com</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751369</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="4" t="inlineStr">
         <is>
           <t>40인 정도 되는 사업장 창립 11주년 기념 행사 및 창립 기념품 선물 지급 제안 요청드립니다.</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="4" t="inlineStr">
         <is>
           <t>16:08:00</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">안녕하세요 인사총무 햇병아리입니다. 저희 회사  창립한 지 11주년이 되었는데, 기념 행사나 창립 기념품 선물 지급 제안 요청 해주시면 감사드리겠습니다. </t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751354</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="4" t="inlineStr">
         <is>
           <t>스팸, 참치 선물세트 제안 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="4" t="inlineStr">
         <is>
           <t>15:41:00</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D96" s="6" t="inlineStr">
         <is>
           <t>50개 내외로 구매할 예정입니다.
 vfxlym@gmail.com 으로 메일 부탁드립니다.</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751345</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="4" t="inlineStr">
         <is>
           <t>설 선물 영양제 건강식품 부탁드려요</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="4" t="inlineStr">
         <is>
           <t>15:23:00</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D97" s="6" t="inlineStr">
         <is>
           <t>금액은 5만원 정도입니다.
 건강식품 이외에도 괜찮은 상품 있으면 메일 부탁드려요
 alsrn4188@naver.com</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E97" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751332</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="4" t="inlineStr">
         <is>
           <t>명절선물 추천 부탁드려요!</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C98" s="4" t="inlineStr">
         <is>
           <t>15:20:00</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D98" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">안녕하세요^^
 2개월 차 인사쟁이입니당ㅎㅎ
@@ -3435,29 +3463,29 @@
 hc329345@rainbowyouth.ok.kr 입니다 감사합니다^^ </t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E98" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751331</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="4" t="inlineStr">
         <is>
           <t>설 선물세트 제안 부탁드립니다</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="4" t="inlineStr">
         <is>
           <t>14:56:00</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D99" s="6" t="inlineStr">
         <is>
           <t>안녕하세요
 설선물세트 제안부탁드립니다.
@@ -3467,29 +3495,29 @@
 감사합니다 ^^</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751323</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="4" t="inlineStr">
         <is>
           <t>설선물 견적 요청 (10만원)</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="4" t="inlineStr">
         <is>
           <t>14:49:00</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D100" s="6" t="inlineStr">
         <is>
           <t>ㅅ안녕하세요!
 10만원 구성으로 설선물 견적 요청드립니다.
@@ -3501,29 +3529,29 @@
 감사합니다:)</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E100" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751318</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="4" t="inlineStr">
         <is>
           <t>명절 선물세트 제안 요청드립니다.</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="4" t="inlineStr">
         <is>
           <t>14:19:00</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D101" s="6" t="inlineStr">
         <is>
           <t>금액대는 4~6만원 사이 20명정도. 
 1~2만원대 10명정도 부탁드립니다. 
@@ -3532,56 +3560,56 @@
 =완료=</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E101" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751310</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="4" t="inlineStr">
         <is>
           <t>스팸 선물세트 구매</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" s="4" t="inlineStr">
         <is>
           <t>13:10:00</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D102" s="6" t="inlineStr">
         <is>
           <t>100개 정도 택배보내고 구매 해야하는데 업체좀 소개 부탁드립니다</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751292</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="4" t="inlineStr">
         <is>
           <t>단체복 및 회사기념품 제안 부탁드립니다</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C103" s="4" t="inlineStr">
         <is>
           <t>13:08:00</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D103" s="6" t="inlineStr">
         <is>
           <t>안녕하세요 단체복 및 회사기념품 제안 부탁드립니다
 1. 단체복 견적
@@ -3594,29 +3622,29 @@
 메일주소 : seon252525@naver.com</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E103" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751291</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="4" t="inlineStr">
         <is>
           <t>거래처 및 임직원 설 선물 세트 제안 문의 드립니다.</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" s="4" t="inlineStr">
         <is>
           <t>12:29:00</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D104" s="6" t="inlineStr">
         <is>
           <t>안녕하세요, 이번 설 선물 세트 관련하여 좋은 상품 제안 요청 드립니다.
 개수는 약 40개 정도 예상되오며, 금액대는 5~7만원 사이로 부탁 드립니다.
@@ -3626,143 +3654,143 @@
 감사합니다.</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E104" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751283</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="4" t="inlineStr">
         <is>
           <t>명절선물 요청드립니다</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="4" t="inlineStr">
         <is>
           <t>11:55:00</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D105" s="6" t="inlineStr">
         <is>
           <t>어플로 예산 내에서 개인이 선택해서 주소입력 등
 처리가능할까요? 생일 24에 요청해두었는데
 비슷한 업체 있으면 소개 부탁드립니다</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751276</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="4" t="inlineStr">
         <is>
           <t>설 명절 선물 제안받고 싶습니다.</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="4" t="inlineStr">
         <is>
           <t>11:36:00</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D106" s="6" t="inlineStr">
         <is>
           <t>가격대는 20,000원 ~ 23,000원 이고 개수는 150~ 170개 정도(미정)
 수령은 모두 한곳에서 받을겁니다.
 ncin44@naver.com으로 메일주시면 감사드리겠습니다</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751265</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="4" t="inlineStr">
         <is>
           <t>명절 선물 제안 부탁드립니다</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="4" t="inlineStr">
         <is>
           <t>10:57:00</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D107" s="6" t="inlineStr">
         <is>
           <t>약 30세트에서 50세트까지 생각하고 있습니다 
 choga2003@naver.com</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E107" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751251</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="4" t="inlineStr">
         <is>
           <t>직원 명절선물 제안 부탁드려요</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" s="4" t="inlineStr">
         <is>
           <t>09:01:00</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D108" s="6" t="inlineStr">
         <is>
           <t>임원포함 총 40~42명이고 단가는 3~6만원 사이로 생각하고 있습니다.
 선 발주 후 결재 가능하신 업체분들 제안서 보내주시면 감사하겠습니다!</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E108" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751220</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" s="4" t="inlineStr">
         <is>
           <t>직원들 반응 좋았던 명절선물</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" s="4" t="inlineStr">
         <is>
           <t>08:38:00</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D109" s="6" t="inlineStr">
         <is>
           <t>안녕하세요,
 곧 설 명절이네요!
@@ -3774,29 +3802,29 @@
 새 회사에서 맡는 첫 선물준비다 보니, 다른 회사에서 인기가 좋았던 품목 들이 궁금하네요!</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E109" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751215</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="4" t="inlineStr">
         <is>
           <t>임직원 명절선물 제안 부탁드립니다</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="5" t="inlineStr">
         <is>
           <t>2023.01.09.</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" s="4" t="inlineStr">
         <is>
           <t>06:40:00</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D110" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">안녕하세요. 임직원 명절선물 제안 부탁드립니다 :) 
 -임직원 수 : 50~60
@@ -3806,29 +3834,29 @@
 제안 부탁드립니다 :) </t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E110" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/751203</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="4" t="inlineStr">
         <is>
           <t>창립기념일(10주년) 선물 제안 요청드립니다</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="5" t="inlineStr">
         <is>
           <t>2023.02.27.</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" s="4" t="inlineStr">
         <is>
           <t>09:59</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D111" s="6" t="inlineStr">
         <is>
           <t>안녕하세요,
 창립기념일 10주년 선물 제안 요청드립니다.
@@ -3839,29 +3867,29 @@
 감사합니다.</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E111" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/758920</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="4" t="inlineStr">
         <is>
           <t>리더십 관련 도서 추천 부탁드립니다</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="5" t="inlineStr">
         <is>
           <t>2023.02.26.</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="4" t="inlineStr">
         <is>
           <t>16:55</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D112" s="6" t="inlineStr">
         <is>
           <t>파트장급 리더십 교육 후 관련 도서를 선물로 전달하려고 합니다.
 리더십 도서가 워낙 많은데...혹시 추천해주실만한 유익한 
@@ -3869,29 +3897,29 @@
 감사합니다.</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/758875</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="4" t="inlineStr">
         <is>
           <t>가족친화 직장교육 제안 요청</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" s="5" t="inlineStr">
         <is>
           <t>2023.02.24.</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C113" s="4" t="inlineStr">
         <is>
           <t>15:49</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D113" s="6" t="inlineStr">
         <is>
           <t>안녕하세요. 용인시 소재 기업 교육담당자 입니다.
 여가부 가족친화인증을 위한 가족친화 직장교육(전문강사 또는 업체) 제안을 요청드립니다.
@@ -3905,29 +3933,29 @@
 ljhfree97@naver.com</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E113" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/758801</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="4" t="inlineStr">
         <is>
           <t>선택적복지제도 도입 제안드립니다.</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="5" t="inlineStr">
         <is>
           <t>2023.02.22.</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" s="4" t="inlineStr">
         <is>
           <t>18:36</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D114" s="6" t="inlineStr">
         <is>
           <t>안녕하세요~
 2023년 토끼해인만큼 껑~~충 도약할 수 있는 한해되길 바랍니다^^
@@ -3939,29 +3967,29 @@
 감사합니다^^</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E114" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/758408</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="4" t="inlineStr">
         <is>
           <t>(주)비츠메이커스 경영지원실 신입사원 채용</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="5" t="inlineStr">
         <is>
           <t>2023.02.16.</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="4" t="inlineStr">
         <is>
           <t>12:53</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D115" s="6" t="inlineStr">
         <is>
           <t>안녕하세요. (주)비츠메이커스 입니다.
 경영지원실에서 저와 함께 일하실 신입사원을 모시고자 합니다.
@@ -4014,85 +4042,85 @@
 www.saramin.co.kr</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/757418</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="4" t="inlineStr">
         <is>
           <t>경비청구시에 모바일 쿠폰 사용분까지 청구하는 직원...?</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="5" t="inlineStr">
         <is>
           <t>2023.02.15.</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="4" t="inlineStr">
         <is>
           <t>16:33</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D116" s="6" t="inlineStr">
         <is>
           <t>저희 직급 높은 직원중에 경비청구 영수증을 봤는데, 내역에 모바일 쿠폰 사용한 것 포함에서 모두 청구를 하는데요
 다른 회사는 이런경우, 처리해 주시나요?
 사실 모바일 쿠폰을 더 싸게 사서 쓸수도 있고, 그냥 지인한테 선물받은거 사용한것까지 회사에서 처리해 주는게 맞는지 모르겠네요 ㅡㅡ;</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/757277</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="4" t="inlineStr">
         <is>
           <t>사은품 문의</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="5" t="inlineStr">
         <is>
           <t>2023.02.03.</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" s="4" t="inlineStr">
         <is>
           <t>15:41</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D117" s="6" t="inlineStr">
         <is>
           <t>제가 얼마전에 글에서 와인+전동오프너 사은품 댓글을 본 것 같은데 해당건으로 주문하신분 계실까요?</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E117" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/755298</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="4" t="inlineStr">
         <is>
           <t>창립기념 10주년 문의드립니다</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="5" t="inlineStr">
         <is>
           <t>2023.01.14.</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" s="4" t="inlineStr">
         <is>
           <t>19:42</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D118" s="6" t="inlineStr">
         <is>
           <t>2월 말에 창립기념 10주년 행사를 기획하고 있습니다.
 호텔 대관해서 1시간정도 행사 후 만찬을 진행하기로 했는데 제가 처음이라 혹시 다른 회사들은 어떤식으로 식순이 진행되는지 조언을 구하고 싶습니다 ! 
@@ -4100,29 +4128,29 @@
 이것도 추천 부탁드립니다</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E118" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752353</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="4" t="inlineStr">
         <is>
           <t>회사 창립 10주년 기념행사 관</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="5" t="inlineStr">
         <is>
           <t>2023.01.13.</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" s="4" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D119" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">안녕하세요.
 회사 창립 10주년을 맞이하여 행사 준비를 하고 있습니다.
@@ -4131,29 +4159,29 @@
 2. 회사위치 : 강남구 </t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E119" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/752286</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="4" t="inlineStr">
         <is>
           <t>창립기념식 선물 제안 부탁드립니다.</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="5" t="inlineStr">
         <is>
           <t>2023.02.23.</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="4" t="inlineStr">
         <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D120" s="6" t="inlineStr">
         <is>
           <t>1인 단가 10~12만 예상
 임직원 약 170명
@@ -4161,11 +4189,1184 @@
 ※음식류, 상품권류는 안됩니다.</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E120" s="5" t="inlineStr">
         <is>
           <t>https://cafe.naver.com/ak573/758529</t>
         </is>
       </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="inlineStr">
+        <is>
+          <t>창립기념일(10주년) 기념품 제안 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="B121" s="5" t="inlineStr">
+        <is>
+          <t>2023.02.27.</t>
+        </is>
+      </c>
+      <c r="C121" s="4" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D121" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요.
+창립기념일 10주년 기념품 견적 받고자 합니다.
+서울 100명규모 사업장입니다.
+2~30대가 대다수이며
+5만원선, 10만원 미만선 으로 받아볼 수 있을지 싶습니다.
+메일주소 noogiboogi@naver.com 입니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="E121" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/759014</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="inlineStr">
+        <is>
+          <t>회사창립기념 선물 제안 요청</t>
+        </is>
+      </c>
+      <c r="B122" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.01.</t>
+        </is>
+      </c>
+      <c r="C122" s="4" t="inlineStr">
+        <is>
+          <t>05:59</t>
+        </is>
+      </c>
+      <c r="D122" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">약 300명 규모의 회사(제조업체)로 인당 5만원 내에서 회사창립기념 선물을 검토하고 있습니다.
+창립기념일 포함 구정, 추석, 근로자의 날 등 년 5회 고정적으로 임직원들에게 동등한 선물을 지급하고 있으므로 다채로운 제안 주시면 감사 드리겠습니다.
+아래 메일주소로 제안 부탁 드립니다.
+메일주소: savantsh@naver.com </t>
+        </is>
+      </c>
+      <c r="E122" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/759284</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="inlineStr">
+        <is>
+          <t>창립기념일 선물 제안 요청드립니다.</t>
+        </is>
+      </c>
+      <c r="B123" s="5" t="inlineStr">
+        <is>
+          <t>2023.02.28.</t>
+        </is>
+      </c>
+      <c r="C123" s="4" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D123" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요. 답답한 마음에 고민끝에 글써봅니다.
+창립기념일이 다가오는 가운데 선물을 고민중입니다.
+전년도에 수건세트를 구매하였으나 평이 좋지 않아 
+고민중에 있습니다.
+약 2만원대로 450~500개 정도 예상하고 있습니다.
+실속있는 상품제안 부탁드립니다.
+메일주소 : ildsa@naver.com 으로 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="E123" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/759221</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="inlineStr">
+        <is>
+          <t>인사/총무 연간 목표</t>
+        </is>
+      </c>
+      <c r="B124" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.01.</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t>18:42</t>
+        </is>
+      </c>
+      <c r="D124" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요!
+저는 현재 100인 미만 기업에서 인사총무 업무를 담당하고 있습니다.
+이번에 팀장님께서 연간 목표를 설정하고, 어떤 업무를 진행해보고 싶은지 정리하라고 하셨는데 어디서부터 어떻게 잡아가야할지 고민입니다.
+인사 2 : 총무 8 정도의 비율로 업무를 진행하고 있다보니 루틴한 업무가 대부분이고,
+루틴하지 않은 업무로는 인사평가 세팅업무, 재물조사 서포트, 사무실 재배치, 법정교육 진행 등의 업무를 진행했습니다.
+올해 팀장님께서 아래 두 가지 업무를 요청주셔서 이것도 연간 목표에 넣을 예정입니다.
+1) 매출 세금계산서 발행 등 회계 업무 인수를 통한 업무영역 확대
+2) 내부고객만족도 향상을 위한 장기근속 선물패키지, 웰컴키트 등 사내 굿즈 제작
+아직 7개월차다보니 새롭게 해볼만한 업무로 어떤게 있을지 도무지 감이 잡히지 않아 선배님들께 도움을 청하고자 합니다.
+긴 글 읽어주셔서 감사하며 많은 조언 부탁드립니다. 감사합니다.</t>
+        </is>
+      </c>
+      <c r="E124" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/759316</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="inlineStr">
+        <is>
+          <t>인사쟁이 분들! 사업자 번호로 지마켓 가입하고 전용 특별 할인 사용해 보세요~</t>
+        </is>
+      </c>
+      <c r="B125" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.02.</t>
+        </is>
+      </c>
+      <c r="C125" s="4" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="D125" s="6" t="inlineStr">
+        <is>
+          <t>거래처 및 임직원들 선물할 때
+보다 저렴하게 구매하고 싶으시다면 지금 바로 G마켓/옥션에 사업자 번호로 회원가입 해보세요!
+스마일클럽 기본 혜택뿐 아니라 사업자 회원 전용 특별할인도 사용 가능하며,
+다양한 선물들을 보다 저렴하게 구매 가능하답니다
+ [스마일클럽 비즈 사업자전용 e상품권]
+▶사업자 전용 특별할인
+- 온라인문화상품권 5만원 : 46,050원(7% 할인)
+-기프트코드 10만원/구글 기프트카드 : 94,600원(5% 할인)
+-컬쳐랜드 모바일 문화상품권 5만원권 : 46,300원(5% 할인)
+-북앤라이프 도서문화상품권 5만원권/온라인 : 46.300원(7% 할인)
+▶선물테마
+- 백화점/문화상품권
+-호텔/뷔페 식사권
+-커피/카페 상품권
+▶임직원 선물 추천
+-자기계발 도서
+-다이어리/수첩
+-건강식품/바디케어
+▶거래처 선물 추천
+- 캔/햄
+-견과세트
+-수건/우산(회사 로고 각인 서비스)
+▶e쿠폰 선물 추천
+- 문화상품권
+-커피&amp;TEA
+-백화점/마트 상품권
+-외식이용권
+▶스마일클럽 비즈 기본 혜택
+-사업자 회원 가입 후(최초 1회)웰컴 100원 딜
+- G마켓 옥션 각 1회 매월 9만원 쿠폰팩 지급
+-12개월 미구매회원일 경우 웰컴백50% 쿠폰 지급
+-매월 G마켓 옥션 최대12% 할인쿠폰 지급
+- 스마일배송 이용할 때마다 스마일캐시 1% 적립
+-전국 스타벅스 무료 사이즈업
+스마일클럽비즈 가입하여 기본 혜택도 풍성하게 누리고
+사업자회원 선물샵에서 특별할인도 받으면서
+거래처 및 임직원에게 줄 선물 저렴하게 구매해 보세요~
+▶▶http://bit.ly/3maN4uW</t>
+        </is>
+      </c>
+      <c r="E125" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/759342</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="inlineStr">
+        <is>
+          <t>창립20주년 임직원 선물 제안 요청</t>
+        </is>
+      </c>
+      <c r="B126" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.05.</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="D126" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요. 
+임직원 30명 기념선물 제안 부탁합니다.</t>
+        </is>
+      </c>
+      <c r="E126" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/759776</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>선택적복지제도 도입 제안드립니다.</t>
+        </is>
+      </c>
+      <c r="B127" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.05.</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t>09:41</t>
+        </is>
+      </c>
+      <c r="D127" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요~
+2023년 토끼해인만큼 껑~~충 도약할 수 있는 한해되길 바랍니다^^
+저희 회사의  ”선택적복지카드“ 안내드립니다.
+아직도 기업의 기념일,경조사나 명절에 상품권이나 선물로 지급하거나 복지몰에서 어쩔수 없는 물품을 구매하시나요?
+획일적인 지원이 아닌 직원 개개인의 필요와 선호도에 따라 선택이 가능한 “선진형 선택적 복지제도” 도입으로 직원들의 만족도 향상에 도움이 되며 통상임금 상승없이 운영가능한 제도입니다. 
+&lt;장점&gt;
+1.부여된 포인트로  모든 가맹점에서 자기개발이나 물품구매등 자유롭게 선택이 가능함으로 직원들의 만족도 향상
+2.메이저 복지몰을 운영함으로  최저가로  다양한 상품구매가능
+3.정산시스템화로 당사에서 전산구축과 관리
+4.복지카드 제휴를 통해 신규 복지기금 확보
+5.연말정산처리 가능 등
+인사담당자분들은 제안서 검토 후 선택적복지제도 도입만 해주시면 됩니다.
+기업명과 메일 쪽지로 주시면 상세한 제안서와 연락처 보내드리겠습니다.
+감사합니다^^</t>
+        </is>
+      </c>
+      <c r="E127" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/759762</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t>창립기념품 제안요청</t>
+        </is>
+      </c>
+      <c r="B128" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.03.</t>
+        </is>
+      </c>
+      <c r="C128" s="4" t="inlineStr">
+        <is>
+          <t>16:46</t>
+        </is>
+      </c>
+      <c r="D128" s="6" t="inlineStr">
+        <is>
+          <t>창립 16주년 기념품 제안 요청 바랍니다.
+- 인원 : 160명
+- 예산 : 인당 15만원
+- 배송 : 임직원 주소지로 3월 27일까지 배송 완료
+sangdo.choi@ar-tech.co.kr로 좋은 제안 기다리겠습니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="E128" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/759675</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>비즈니스시뮬레이션/ 협업, 소통 / 노사 관계 특강 // 단체티셔츠 제안</t>
+        </is>
+      </c>
+      <c r="B129" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.03.</t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="D129" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">안녕하세요,
+제조업 현장직 대상으로 워크샵 기획중이며, 아래 2가지 교육과 기념품에 대한 제안서 요청드립니다. 
+관심있으신 강사님 및 업체 담당자분들께서는 좋은 제안 부탁드립니다. 
+지역은 경남권입니다. 
+1. 비즈니스시뮬레이션 게임 - 3시간  
+교육대상자들이 활발하게 참여할 수 있는 활동적인 요소가 필수로 포함되어있었으면 합니다. 
+2. 노사관계 특강 - 2시간
+사측을 이해할 수 있는 협업과 소통에 대한 Insight가 있었으면 합니다. 
+3. 단체티셔츠 
+수량은 6~70개 예상되며, 40대가 선호하는 브랜드로 추천해주시면 감사하겠습니다.
+자수로 이니셜 새기고자 하며(전원 통일) 단가는 자수 포함 6만원대~10만원대를 고려하고 있습니다. 
+메일주소: rkdwndud23@naver.com
+감사합니다. </t>
+        </is>
+      </c>
+      <c r="E129" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/759677</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>류랑도 저자의 "일하기 전, 일하는 중, 일하고 난 후" 출간</t>
+        </is>
+      </c>
+      <c r="B130" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.03.</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>14:19</t>
+        </is>
+      </c>
+      <c r="D130" s="6" t="inlineStr">
+        <is>
+          <t>&lt;일하기 전에 기대하는 결과물을 '합의'하고 일하는 중에 과정결과물을 '어필'하고 일하고 난 후 성과에 대해 '고백'하는 것이 제대로 일하는 방법이다&gt;
+안녕하세요? 이번에 출간된 &lt;일하기 전, 일하는 중, 일하고 난 후&gt; (2023. 쌤앤파커스)의 의미에 대해  잠깐 살펴보고자 합니다.
+기업이나 기관과 같은 직장에서 요즘 가장 핫한 이슈는 
+단연 역할과 책임의 '개인화'라고 할 수 있을 겁니다.
+지금까지는 중간관리자역할을 하는 임원이나 팀장이 책임지고 있는 조직의 업무진행상황에 대해 
+총괄책임을 지고, 하위조직이나 팀원들의 업무진행상황에 대해 일일이 주간업무회의나 1대일1 면담을 통해 진도를 체크하고 방향을 지시하는 과정을 통해 일하는 방식이 주류였습니다.
+하지만 이제는 예전처럼 팀장이나 상위리더가 하위조직장이나 팀원들의 업무진행상황에 대해 일일이 개입할 수 있는 
+상황이 아닙니다. 실행하는 사람이 자신이 진행하는 업무의 성과에 대해 자기완결적으로 실행하고 책임지는 역할중심의 수평적 업무처리방식이 대세로 자리잡아가고 있습니다.
+리더와 팔로워가 따로 있고, 상사가 부하를 관리하고, 아랫사람이 윗사람을 모시고 일하는
+수직적 계층조직에 기반한 일처리방식은 더 이상 설 자리가 없습니다.
+이제는 누구라도 직위와 직책에 관계없이 역할과 책임에 기반하여 자기완결적으로 일해야 합니다.
+무슨 일을 하든지 일을 하기 전에 일을 시킨 사람이나 상위리더와 기대하는 결과물에 대해 합의하고,
+일을 하는 과정에서는 기간별 과정결과물을 어필하고 남은 결과물에 대해 예측설명하고, 일을 하고 난 후에는
+성과를 평가하고 개선과제와 만회대책을 고백하는 것이 중요합니다.
+이 책은 
+팀장이나 본부장들이 팀원이나 팀장들에게 일하는 방법에 대해 일일이 설명하지 않아도
+'이 책에 내가 하고 싶은 말이 다 들어 있으니 이대로 일하면 된다'라는 의미로 일하는 방식에 대한 
+지침서로 선물해 주시면 좋습니다. 또한 리더로써 하위조직이나 실무자들에게 
+일을 제대로 시키기 위한 방법론이 아주 구체적으로 실무적으로 쓰여져 있기 때문에 
+일독을 반드시 권해 드립니다.
+팀원들이나 업무를 직접 실행하는 사람이라면 일을 시킨 사람이나 상위리더와 
+어떻게 일을 해야 스트레스 받지 않고 원활하게 갈등없이 자기완결적으로 일할 수 있는지 
+방법론을 실무적으로 제공해 주기 때문에 일을 할 때 옆에 두고 수시로 참고하면 일 잘하는 사람으로 
+인정받을 수 있습니다.
+직책이나 직위상 하위 직책자나 직위자라면 자신이 생각하기에 상위리더들이 일을 시키는 방법이
+답답하고 꼰대스럽다면 상위 직책자나 직위자에게 선물하여 스트레스 받지 않고 
+일하는 환경을 만드는데도 좋습니다.ㅎ
+단순히 독서를 권하거나 권장하기 보다 제대로 일하는 문화를 만들기 위해 리더나 실무자들에게
+실무적으로 반드시 필요한 책이라고 생각하기 때문에 용기를 내서 한 말씀 올렸습니다.
+대한민국의 모든 리더와 실무자들이 스트레스받지 않고 신바람나게 일하여 지속적으로 성과를 창출하는 
+기쁨을 누리시기를 진심으로 바랍니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="E130" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/759616</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="inlineStr">
+        <is>
+          <t>임신/출산 선물 제안 요청드립니다.</t>
+        </is>
+      </c>
+      <c r="B131" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.03.</t>
+        </is>
+      </c>
+      <c r="C131" s="4" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+      <c r="D131" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요 :)
+임직원 or 임직원의 배우자 출산/임신 시 제공할 키트를 기획중에 있습니다.
+ - 임신 : 임산부 지원 키트
+ - 출산 : 산후조리 키트
+가격은 키트당 10~20만원 내외로 구상중에 있습니다.
+댓글 주시면 견적 발송 안내 드리고자 합니다.
+기업 규모는 150여명으로, 규모가 크지 않아 거래량이 많지는 않습니다.
+지속적으로 거래가 가능한 업체였으면 좋겠습니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="E131" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/759686</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="inlineStr">
+        <is>
+          <t>인사팀 /인사팀장 KPI</t>
+        </is>
+      </c>
+      <c r="B132" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.06.</t>
+        </is>
+      </c>
+      <c r="C132" s="4" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="D132" s="6" t="inlineStr">
+        <is>
+          <t>인사경력 19년 인사팀장입니다,
+대기업 건설사에 근무하다, 중견으로 갑자기 성장한 건설사로 이직한지 몇개월 안됬는데,, 들어온지 첫날부터... 아~~
+일이 너무 많네요
+나름 인사전문가라고 생각했었는데... 젊은 오너로 인하여 매일매일 혁신적인거, 새로운거, 쇼킹한거 만 찾네요
+이제 나이가 들어서 머리가 안굴러가는지... 답이 안나오네요
+혹시 카페 선 후배님들, 인사팀장 및 인사팀 KPI관련 자료 있으면, 공유 부탁드립니다,
+제가 이곳에서 일잘하는 사람으로 인정 받고 회사에 없어서는 안될사람이 될 정도로 노력 한후 가장 쇼킹한 
+선물(이직 혹은 퇴사)을 주고싶습니다, ㅋㅋㅋㅋ
+제 메일은 mani55@naver.com</t>
+        </is>
+      </c>
+      <c r="E132" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/759838</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="inlineStr">
+        <is>
+          <t>임원 복리후생</t>
+        </is>
+      </c>
+      <c r="B133" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.06.</t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t>15:42</t>
+        </is>
+      </c>
+      <c r="D133" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요,
+이번에 임원 복리후생 증진을 검토 중인데, 카페 내 회원님들에게 도움 요청드립니다.
+현재 시행 중인 임원 복리후생은 일반 직원들과 동일한 복리후생+출퇴근 체크 제외 정도 수준입니다.
+(직원 복리후생 : 여름휴가 3일, 생일휴가 1일, 장기근속자 포상/휴가, 명절선물, 자사브랜드 할인권 및 평생권 등)
+이번 검토 및 신설을 통해 임원들도 메리트를 느끼면서 열심히 근무할 구실 마련과 일반 직원들도 임원 승진을 하게되면 누리게 될(?) 동기요소로 작용하길 바라고 있습니다.
+현재 생각하고 있는 것들은,
+1. 법인카드 지급
+2. 통신비 지원(max 10만)
+3. 년 1회 종합건강검진비 지원(max는 아직 고민 중입니다.)
+몇가지 더 고민 중인 것들이 있지만, 아직 회사가 안정적인 매출이 아니어서, 고민 중인 것들은 적정한 시기를 보고 추가로 진행하려고 합니다.
+임원 복리후생 별도로 시행하고 반응 괜찮은 복리후생 있으신 분들의 도움 부탁드립니다!!!</t>
+        </is>
+      </c>
+      <c r="E133" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/759937</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="inlineStr">
+        <is>
+          <t>사내근로복지기금 운용 자금 관련 문의</t>
+        </is>
+      </c>
+      <c r="B134" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.07.</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>13:04</t>
+        </is>
+      </c>
+      <c r="D134" s="6" t="inlineStr">
+        <is>
+          <t>회사에서 원래부터 복지혜택으로 지급되었던 근로자 자녀 학자금과 떡값 그리고 개인연금 등등 이것을 사내근로복지기금으로 활용하여 복지를 제공하고자 하는데.
+메뉴얼을 대략 확인하여보니 사내근로복지기금으로 운영되어 나온 수익금으로 사용하는게 원칙이라고 되어있던데... 제가 이해한게 맞는지 모르겠네요.
+위와 같이 복지제공을 하면 수익창출될만한 사업이 없는데.... 개인연금 지급, 자녀학자금, 창립기념 선물 제공 이렇게 지원하고자 하는데요. 
+그냥 회사에서 출연금-&gt; 복지기금-&gt; 복지제공 이렇게 되는게 아닌건가요 ?
+출연금-&gt;복지기금-&gt; 복지기금 수익사업 -&gt; 수익으로 복지제공 ?  수익 재원을 원칙으로 복지제공 운영한다가 이렇게 운영한다는건지....</t>
+        </is>
+      </c>
+      <c r="E134" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760134</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="inlineStr">
+        <is>
+          <t>4월중순 신사옥 이전식 견적주실 담당자님 계신가요?</t>
+        </is>
+      </c>
+      <c r="B135" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.07.</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>08:25</t>
+        </is>
+      </c>
+      <c r="D135" s="6" t="inlineStr">
+        <is>
+          <t>저희 사옥에서 이전식을 진행하려고 하는데 뭐부터 해야할지 모르겠어서요
+식순부터 행사 뷔페까지 전담으로 하시는 업체 있으신지 궁금합니다
+sangcmi1@naver.com 제 메일주소입니다!</t>
+        </is>
+      </c>
+      <c r="E135" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760036</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="inlineStr">
+        <is>
+          <t>[(주)지란지교시큐리티] 인사팀 총무업무 담당자 모십니다.(경력)</t>
+        </is>
+      </c>
+      <c r="B136" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.07.</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t>12:57</t>
+        </is>
+      </c>
+      <c r="D136" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요. (주)지란지교시큐리티 인사팀 입니다.
+금번 폐사에서 총무업무 담당자를 모시게 되어 관련 내용을 올려드리게 되었습니다.
+폐사는 국내 최고의 보안솔루션 기술력을 보유한 대한민국 대표 소프트웨어 기업으로 메일보안솔루션인 스펨스나이퍼, 문서중앙화솔류션인 다큐원 등 다수의 제품을 개발 및 보유하고 있습니다.
+이를 기반으로 늘 새로운 연구개발을 통한 해외시장 개척, 신기술 출현에 따른 신규사업으로의 확장 등 현재도 여전히 성장하고 있는 회사입니다.
+모집요강은 아래와 같습니다.
+많은 관심과 지원 부탁드립니다.
+----------------------------------------------------------------------------------------------------------------------------------
+[모집개요]
+1. 근무부서 : 인사팀
+2. 고용형태 : 정규직
+3. 급여조건 : 경력에 따른 회사내규 적용
+4. 경력조건 : 해당 실무 5년 내외
+5. 근 무 지 : 경기도 성남시 금토로 80번길 37 인피니티타워 W동
+6. 모집기간 : 채용완료 시 종료
+[주요업무]
+1. 자산, 시설, 계약 관리 등
+2. 전산관리(전산장비 구매 및 관리, 네트워크, 도메일 관리 등)
+3. 기타 총무업무 전반
+[지원자격]
+1. 운전가능자(필수)
+2. 컴퓨터 활용능력 우수자
+3. 커뮤니케이션 능력 우수자
+[복리후생]
+1. (부분)선택적근로시간제 운영
+2. 리프레쉬 복지몰 및 명절선물, 가정의달 선물, 생일축하 선물 지원
+3. 종합건강검진 및 단체상해보험 가입
+4. 아침조식 및 구내식당, 카페테리아 운영
+5. 경조금 및 안식휴가, 포상 운영
+6. 리조트 및 제주도 게스트하우스 지원
+7. 사내 마사지케어 운영
+8. 셔틀버스[판교역] 및 통근버스 운영[동부(군자역→잠실역→가락시장역), 서부(신도림→대림)지역] 등 직원 친화적 복리후생 제도 운영
+[지원방법]
+1. 이메일 지원 : icjang@jiran.com 으로 이력서(자유양식) 지원</t>
+        </is>
+      </c>
+      <c r="E136" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760132</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="inlineStr">
+        <is>
+          <t>어른 그림책 여행</t>
+        </is>
+      </c>
+      <c r="B137" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.07.</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="inlineStr">
+        <is>
+          <t>10:24</t>
+        </is>
+      </c>
+      <c r="D137" s="6" t="inlineStr">
+        <is>
+          <t>[목차]
+여는 글_ 그림책은 꽃, 그늘을 드리우는 아름드리나무다
+1장. 우물 속에는 파란 바람이 불고
+또 다른 나를 찾아 나선 이들과 나누고 싶은 이야기_ 『누가 진짜 나일까?』(김정해)/ 작은 벽돌과 떠나는 여행, 나를 찾다_ 『작은 벽돌』(황희진)/ 들러주세요, 마음이 보고 싶거든_ 『마음의 집』(변영이)/ 말을 더듬는 건 두려움이 따르지만 아름다운 일이에요_ 『나는 강물처럼 말해요』(백화현)/ 누구에게나 하나쯤은 있는 작은 냄비_ 『…아나톨의 작은 냄비』(손효순)/ 서사가 멈추면 그림이 이야기를 시작한다_ 『잃어버린 영혼』(유주현)/ 일요일 밤 블레즈씨는 어디에 있을까?_ 『블레즈씨에게 일어난 일』(유수진)/ 걷다가 친구를 만난 것처럼_ 『연남천 풀다발』(황희진)/ 마지막 미소를 짓는 순간, 돌아가다_ 『어느 늙은 산양 이야기』(유수진)/ 함께 즐겨요!_ 그림책 읽기의 즐거움(유주현)
+2장. 지혜를 낚는 어부가 되어
+소년과 두더지와 여우와 말이 전하는 삶에 관한 이야기_ 『소년과 두더지와 여우와 말』(오현아)/ 등 떠미는 소비 시장에서 뚝심 있게 서는 법_ 『최고의 차』(김정해)/ 결말을 말하고 싶어서 입이 근질거려_ 『세상에서 가장 맛있는 무화과』(손효순)/ 세상을 밝히는 따뜻하고 행복한 사람들_ 『쫌 이상한 사람들』(김정해)/ 다르지만 같은 이름 엄마_ 『엄마』(유주현)/ 몽글몽글한 여행 이야기 속으로_ 『여기보다 어딘가』(변영이)/ 그림 그리기 딱 좋은 나이, 그림 그리는 할머니 김두엽입니다_ 『그림 그리는 할머니 김두엽입니다』(오현아)/ 책만 읽는 바보 이덕무의 지독한 책 사랑_ 『책이 된 선비 이덕무』(김명희)/ 열린 손으로 꿈을 지은 사람_ 『르 코르뷔지에』(김명희)/ 함께 즐겨요!_ 행복으로 가는 그림책방에 머물다(김명희&amp;변영이)
+3장. 돌아보면 그리움인 것을
+유년 시절의 즐거운 기억_ 『동전 하나로도 행복했던 구멍가게의 날들』(배수경)/ 조개맨들도 부시미 산도 그대로인데…_ 『조개맨들』(오현아)/ 백 년 전 북간도 이야기 한 자락 들어볼래요?_ 『고만녜』(변영이)/ 어린 시절 진한 추억으로의 초대_ 『아카시아 파마』(손효순)/ 손으로 기억하고 미래로 전해주다_ 『나의 를리외르 아저씨』(배수경)/ 인생, 영화, 그리고 그림책_ 『인생이라는 이름의 영화관』(황희진)/ 따뜻한 말 한마디, 그리고 그림책의 힘_ 『엄마 마중』(유주현)/ 우리들의 할머니를 찾아서_ 『할머니, 어디 가요? 쑥 뜯으러 간다』(김명희)/ 양귀비꽃이 선물한 기적_ 『잠에서 깨어난 집』(배수경)/ 함께 즐겨요!_ 감성 충전 사계절 그림책 여행(오현아&amp;김정해)
+4장. 더불어 숲을 꿈꾸며
+외롭다고 힘들다고 왜 말을 못 해?_ 『하루거리』(유수진)/ 오늘, 안부를 묻다_ 『오늘은 아빠의 안부를 물어야겠습니다』(배수경)/ 함께 살아가는 풍경_ 『비에도 지지 않고』(유주현)/ 가슴에 새겨진 문진_ 『나무 도장』(김명희)/ 분단이 낳은 아픔, 그리운 엄마에게_ 『엄마에게』(백화현)/ 팬데믹 시대, 희망을 노래하다_ 『그리고 사람들은 집에 머물렀습니다』(오현아)/ 황무지에서 숲을 꿈꾼 엘제아르 부피에, 나무를 심은 사람_ 『나무를 심은 사람』(백화현)/ 침묵을 지킬 수는 없었니?_ 『마지막 거인』(손효순)/ 제르마노 쥘로와 알베르틴, 개인의 사회적 역할을 묻다_ 『잠시만요 대통령님』(백화현)/ 함께 즐겨요!_ 늦게 피어난 꽃, 시니어 그림책을 주목하다(백화현)</t>
+        </is>
+      </c>
+      <c r="E137" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760076</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="inlineStr">
+        <is>
+          <t>창립10주년 임직원 선물 견적 받습니다.</t>
+        </is>
+      </c>
+      <c r="B138" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.07.</t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="inlineStr">
+        <is>
+          <t>14:29</t>
+        </is>
+      </c>
+      <c r="D138" s="6" t="inlineStr">
+        <is>
+          <t>창립10주년 임직원 선물 견적 받습니다.
+인원:40명 정도
+jse@fantalooks.com</t>
+        </is>
+      </c>
+      <c r="E138" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760168</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="inlineStr">
+        <is>
+          <t>건강식품 단체 선물 리스트 받을수 있나요?</t>
+        </is>
+      </c>
+      <c r="B139" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.07.</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t>20:38</t>
+        </is>
+      </c>
+      <c r="D139" s="6" t="inlineStr">
+        <is>
+          <t>25명 내외 회사 이름으로 선물 나갈껀데
+건강식품, 영양제 최대 3만원 정도로 리스트나 견적 받을수 있을까요?
+금요일에 드릴꺼라 목요일에 받아야해서 좀 많이 급하고 법카도 가능 했으면 좋겠어요
+wsm2922@naver.com</t>
+        </is>
+      </c>
+      <c r="E139" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760264</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="inlineStr">
+        <is>
+          <t>창립기념품 제안 요청</t>
+        </is>
+      </c>
+      <c r="B140" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.07.</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="inlineStr">
+        <is>
+          <t>16:17</t>
+        </is>
+      </c>
+      <c r="D140" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요.
+창립기념품 제안 요청드립니다.
+ 1. 창립일 : 3.20.(월)(60주년)
+ 2. 예산 : 인당 5-10만원
+ 3. 인원 : 80명
+blue6914@naver.com로 제안 주시면 감사드립니다.</t>
+        </is>
+      </c>
+      <c r="E140" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760215</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="inlineStr">
+        <is>
+          <t>승진자 대상 축하 선물</t>
+        </is>
+      </c>
+      <c r="B141" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.08.</t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="D141" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요 
+승진자 대상 선물 기획중입니다.  
+교육 후에 기념 될만한 선물을 지급하고 싶은데요. 
+뭐가 좋을까요? 담당자님들 기획 하셨던 것 중에 기억에 남는 선물등이 있으셨을까요?</t>
+        </is>
+      </c>
+      <c r="E141" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760317</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="inlineStr">
+        <is>
+          <t>창립기념일 선물 제안 요청드립니다.</t>
+        </is>
+      </c>
+      <c r="B142" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.08.</t>
+        </is>
+      </c>
+      <c r="C142" s="4" t="inlineStr">
+        <is>
+          <t>09:02</t>
+        </is>
+      </c>
+      <c r="D142" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">창립기념일 4월 3일(30주년)
+인원: 60명
+예상비용: 5만 ~ 10만
+welctc@naver.com  
+제안 요청드려요! </t>
+        </is>
+      </c>
+      <c r="E142" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760295</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="4" t="inlineStr">
+        <is>
+          <t>회사 창립기념일 행사진행 및 기념품 제안요청합니다.</t>
+        </is>
+      </c>
+      <c r="B143" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.08.</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t>08:36</t>
+        </is>
+      </c>
+      <c r="D143" s="6" t="inlineStr">
+        <is>
+          <t>[ 창립 30주년 기념일 행사]
+1) 일시 : 23년 4월 15일 (토)
+2) 장소 : 경주 OO호텔
+3) 대관시간 : 오전 11시 ~ 오후 4시
+4) 인원 : 120명 ( 40대~50대 연령대)
+▶ 행사진행 제안요청 : 아직 구체적인 (안)은 없음, 일정표도 같이 제안주시면 감사하겠습니다!
+▶ 기념품 제안요청 : 대부분 40~50대로 3만~5만원선으로 부탁드립니다.
+※ 담당자 이메일 : arlee@wesanode.co.kr</t>
+        </is>
+      </c>
+      <c r="E143" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760289</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="inlineStr">
+        <is>
+          <t>근로자의 날 선물</t>
+        </is>
+      </c>
+      <c r="B144" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.08.</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>07:52</t>
+        </is>
+      </c>
+      <c r="D144" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">근로자의 날 5만원 상당의 선물이 뭐가 있을까요?
+일반적인 선물(고기, 과일 등 명절에 받을 수 있는 선물) 제외하고 추천 부탁드립니다. </t>
+        </is>
+      </c>
+      <c r="E144" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760286</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="inlineStr">
+        <is>
+          <t>수습 통과자 직원 축하 선물 제안 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="B145" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.08.</t>
+        </is>
+      </c>
+      <c r="C145" s="4" t="inlineStr">
+        <is>
+          <t>12:03</t>
+        </is>
+      </c>
+      <c r="D145" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요~
+당사는 수습 통과 직원들에게 소정의 축하 선물을 하고자 하는데...
+좋은 제안 있으시면 제안 부탁드립니다.
+* 3개월 수습평가 통과자
+ - 가격대 : 5만원 내외
+ - 수량 : 100개 내외
+ - 선물 제안 방향 : 회사 로고가 간단히 있지만, 평소 사용하는데 불편함 없는 실용적인 제품
+* 1년 계약직 평가 후 정규직 전환자
+ - 가격대 : 10만원 내외
+ - 수량 : 50개 내외
+ - 선물 제안 방향 : 회사 로고가 간단히 있지만, 평소 사용하는데 불편함 없는 실용적인 제품
+제안서 접수 이메일 : kkw0401@auto-nics.com / kkw0401@naver.com
+제안 접수 마감일 : ~ 3.12(일)한
+좋은 제안 부탁드립니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="E145" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760356</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="inlineStr">
+        <is>
+          <t>주재원 관련 규정(주재수당, 임차료) 의견 공유 부탁드려요~!</t>
+        </is>
+      </c>
+      <c r="B146" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.08.</t>
+        </is>
+      </c>
+      <c r="C146" s="4" t="inlineStr">
+        <is>
+          <t>14:42</t>
+        </is>
+      </c>
+      <c r="D146" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요, 인사쟁이 여러분들 모두 고생이 많으십니다 ㅎㅎ
+저는 마곡 내 한 회사에서 경력 채용과 주재원을 담당하고 있는 인사팀 직원입니다~
+곧 필리핀 내 신규 해외법인이 설립예정인데 
+주재수당과 임차료 지원 관련하여 의견 교류를 하고 싶어서 글을 남깁니다!
+필리핀 내 해외법인을 가지고 있고 주재원을 운영하고 있는 회사 인사 담당자가 계신 경우
+댓글 달아주시면 제가 연락드릴게요!
+저희 쪽 정보도 같이 공유하고 인사이트도 같이 넓혔으면 좋겠습니다 ㅎㅎ
+PS. 필리핀 주재원 관련하여 도움 주신 분께는 아아 선물도 드리도록 하겠습니다 ^^</t>
+        </is>
+      </c>
+      <c r="E146" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760395</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="inlineStr">
+        <is>
+          <t>창립기념일 선물 제안 요청</t>
+        </is>
+      </c>
+      <c r="B147" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.08.</t>
+        </is>
+      </c>
+      <c r="C147" s="4" t="inlineStr">
+        <is>
+          <t>14:13</t>
+        </is>
+      </c>
+      <c r="D147" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요 창립기념일 행사로 대내외 감사 선물을 준비 중입니다.
+임직원용 30개 (15~20만원) 주방용품 또는 주방가전용품
+외 부 용 100개 (2만~4만원) 골프공 셋트 (추가사항 : 회사명이 인쇄된 포장 포함)
+근속상 황금열쇠 3개 (각, 250만원, 동판인쇄된 케이스 포함)
+부탁드립니다.
+보내실 메일 : barlam@naver.com</t>
+        </is>
+      </c>
+      <c r="E147" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760386</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="4" t="inlineStr">
+        <is>
+          <t>법인카드로 복지비 이중 결제했는데, 취소가 안될 경우 어떻게 해야하나요?</t>
+        </is>
+      </c>
+      <c r="B148" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.08.</t>
+        </is>
+      </c>
+      <c r="C148" s="4" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
+      <c r="D148" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요.
+생일 선물로 모바일 쿠폰을 발송드리는데, 5만원권을 실수로 2번 결제해서 발송한 것을
+지출결의서 작성하게 되면서 알게되었는데요
+쿠폰 구매처에 확인해본 결과, 쿠폰 수령하신 생일자분이 이미 쿠폰 2개를 다 사용하셔서
+취소가 불가능한 상황입니다.
+제 실수니까 제가 개인비용으로 회사 통장에 넣어야 하나 생각중이었는데
+혹시 이럴 경우 더 좋은 해결방안이 있을까요?
+도움 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="E148" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760385</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="inlineStr">
+        <is>
+          <t>사내 깜짝 선물</t>
+        </is>
+      </c>
+      <c r="B149" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.09.</t>
+        </is>
+      </c>
+      <c r="C149" s="4" t="inlineStr">
+        <is>
+          <t>09:48</t>
+        </is>
+      </c>
+      <c r="D149" s="6" t="inlineStr">
+        <is>
+          <t>어쩌다 보니 사내 깜짝 선물을 준비하게 될거 같아요...
+미리알아보라고 하셔서 준비하려는데 직원들에게 텀블러를 주는게 좋을까요, 기프티콘을 주는게 나을까요?
+가격은 5만원선에서 해결하려고 합니다!</t>
+        </is>
+      </c>
+      <c r="E149" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760510</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="inlineStr">
+        <is>
+          <t>직원들의 소액 횡령사실을 알게되었습니다.</t>
+        </is>
+      </c>
+      <c r="B150" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.09.</t>
+        </is>
+      </c>
+      <c r="C150" s="4" t="inlineStr">
+        <is>
+          <t>11:44</t>
+        </is>
+      </c>
+      <c r="D150" s="6" t="inlineStr">
+        <is>
+          <t>직장인괴롭힘의 주범 가해자들의
+소액 횡령사실까지 포착하고야 말았습니다.
+큰 돈을 해먹을 수 있는 구조가 아닌데
+짤짤이로 많이 해먹고 있었더라고요.
+주문내역이나 결제상세내역을 볼수가 없기때문에
+영수증과 숫자를 보고 판단을 내린건데
+회사 물품을 주문할때
+자신이 부모님께 선물할 물품을 끼워서 주문한 것으로 보이고
+임원의 출장비를 청구해놓고
+알고보니 자신의 여행기차티켓을 청구한 것으로 보입니다.
+직원식사비로 청구한부분이 있었는데
+알고보니 그날 식사를 하지 않았는데
+식사비를 청구했고요
+이런식으로 직원 여러명이
+월 20-50만원정도는 계속 해먹고있었던 것 같아요.
+그런데 증거포착은 했으나
+상세내역이라던지 실질적 사용내역 확인이
+어려운 상황이라 어떤식으로 풀어갈지
+고민중에 있습니다.
+소액 횡령도 형사처벌 가능하다 하는데
+혹시 이런 경우
+ 처리해보신 경험있으신분 있으신가요?
+어떤식으로 풀어갈지 고민이 많습니다.</t>
+        </is>
+      </c>
+      <c r="E150" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760554</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="inlineStr">
+        <is>
+          <t>창립50주년 직원 및 거래처 기념품</t>
+        </is>
+      </c>
+      <c r="B151" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.09.</t>
+        </is>
+      </c>
+      <c r="C151" s="4" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="D151" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요
+창립50주년을 맞이하여 행사를 진행하고자 합니다.
+직원 기념품 약 100명
+예산 약 20~30 만원
+거래처 기념품 약 250개
+예산 약 5~7만원
+기념품 추천 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="E151" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760561</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="inlineStr">
+        <is>
+          <t>창립기념행사 제안서 요청합니다.</t>
+        </is>
+      </c>
+      <c r="B152" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.09.</t>
+        </is>
+      </c>
+      <c r="C152" s="4" t="inlineStr">
+        <is>
+          <t>13:13</t>
+        </is>
+      </c>
+      <c r="D152" s="6" t="inlineStr">
+        <is>
+          <t>참여인원 : 임직원 100명
+행사 컨셉 : 미정(제안 요청)
+행사장소 : 사옥(대구 달성군 소재)
+             행사시간 : 12시 ~ 15시(점심시간 포함)
+              출장뷔페 및 기념품 포함
+식순 및 프로그램 제안서 요청드립니다.
+이메일 : ukjoolove@naver.com</t>
+        </is>
+      </c>
+      <c r="E152" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760569</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="n"/>
+      <c r="B153" s="5" t="n"/>
+      <c r="C153" s="4" t="n"/>
+      <c r="D153" s="6" t="n"/>
+      <c r="E153" s="5" t="n"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="n"/>
+      <c r="C154" s="4" t="n"/>
+      <c r="D154" s="6" t="n"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="4" t="n"/>
+      <c r="D155" s="6" t="n"/>
+    </row>
+    <row r="156">
+      <c r="D156" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gamdong.xlsx
+++ b/gamdong.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5350,23 +5350,1023 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="4" t="n"/>
-      <c r="B153" s="5" t="n"/>
-      <c r="C153" s="4" t="n"/>
-      <c r="D153" s="6" t="n"/>
-      <c r="E153" s="5" t="n"/>
+      <c r="A153" s="4" t="inlineStr">
+        <is>
+          <t>창립기념 선물 제안 요청드립니다.</t>
+        </is>
+      </c>
+      <c r="B153" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.09.</t>
+        </is>
+      </c>
+      <c r="C153" s="4" t="inlineStr">
+        <is>
+          <t>15:11</t>
+        </is>
+      </c>
+      <c r="D153" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요.
+창립기념 임직원 선물 제안 요청드립니다. (식품제외)
+단가 : 3만원 이하
+수량 : 60개
+이메일 : boyish81@naver.com</t>
+        </is>
+      </c>
+      <c r="E153" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760610</t>
+        </is>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" s="4" t="n"/>
-      <c r="C154" s="4" t="n"/>
-      <c r="D154" s="6" t="n"/>
+      <c r="A154" s="4" t="inlineStr">
+        <is>
+          <t>창립기념일 선물 제안 부탁 드립니다.</t>
+        </is>
+      </c>
+      <c r="B154" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.09.</t>
+        </is>
+      </c>
+      <c r="C154" s="4" t="inlineStr">
+        <is>
+          <t>16:14</t>
+        </is>
+      </c>
+      <c r="D154" s="6" t="inlineStr">
+        <is>
+          <t>금액은 개당 3만원 이하로 생각 하고 있습니다.
+100 개 정도 구매할 예정 입니다.
+많은 제안 부탁 드립니다.
+wow_sunshine@naver.com
+으로 부탁 드립니다
+감사 합니다.</t>
+        </is>
+      </c>
+      <c r="E154" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760631</t>
+        </is>
+      </c>
     </row>
     <row r="155">
-      <c r="C155" s="4" t="n"/>
-      <c r="D155" s="6" t="n"/>
+      <c r="A155" s="4" t="inlineStr">
+        <is>
+          <t>회사생활을 더 잘하고 싶다면 ﻿﻿&lt;&lt;괜히 끌리는 사람들, 호감의 법칙 50&gt;&gt;﻿ 도서추천</t>
+        </is>
+      </c>
+      <c r="B155" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.10.</t>
+        </is>
+      </c>
+      <c r="C155" s="4" t="inlineStr">
+        <is>
+          <t>09:57</t>
+        </is>
+      </c>
+      <c r="D155" s="6" t="inlineStr">
+        <is>
+          <t>이런 분들께 추천해요~~ 내용이 어렵지 않아 술술 읽히는데 생각해보면 정말 중요한 내용만 정리 해 두었더라구요.
+* 회사생활이나 연애나... 사람들과의 관계에서 뭐가 문제지? 라는 생각이 들때
+* 사람들을 많이 만나는 직군에서 일하시는 분들
+* 지금 보다 더 행복한 삶을 살고 싶은 분들
+ &lt;&lt;괜히 끌리는 사람들, 호감의 법칙 50&gt;&gt;
+Prologue
+PART 1. 끌리는 호감을 만드는 하루 습관
+Law 01 세상의 모든 것은 관계로 시작하고 관계로 끝난다
+Law 02 어떤 사람이 호감을 느끼게 하는가
+Law 03 호감이 당신에게 주는 엄청난 선물
+Law 04 퍼스널 브랜드 시대, 당신의 호감도는
+Law 05 나의 호감도 진단
+Law 06 행운도 끌어당기는 힘, 호감
+PART 2. 스스로에게 호감 가는 사람이 되는 짧고 사소한 기술들
+Law 07 나는 과연 호감 가는 사람일까?
+Law 08 호감의 첫 관문 감정기복
+Law 09 자신을 꾸미는 호감의 기술
+Law 10 호감의 전제 조건
+Law 11 절대절명의 위기를 호감으로 바꾸는 법
+Law 12 내향적인 사람이 호감형이 되는 방법
+PART 3. 호감형 인간의 10가지 스타일
+Law 13 우리는 자신만의 호감 스타일을 갖고 있다
+Law 14 누구도 못하는 추진력에 끌린다 : 1. 리더형 호감
+Law 15 유쾌한 분위기로 지루할 틈을 안 준다 : 2. 유머형 호감
+Law 16 겸손으로 편안함을 준다 : 3. 겸손형 호감
+Law 17 만나면 새로운 걸 얻어간다 : 4. 아이디어형 호감
+Law 18 해보지 않은 것을 해봤다 : 5. 동경형 호감
+Law 19 순수함이 넘치는 어린 시절의 추억 : 6. 순진형, 백치미형 호감
+Law 20 지치지 않는 경청으로 상대의 입이 즐겁다 : 7. 리액션형 호감
+Law 21 사람과 사람을 연결시켜주는 인맥왕 : 8. 마당발형 호감
+Law 22 나대지 않고 뒤에서 사람들을 지원해 준다 : 9. 세계평화주의형 호감
+Law 23 문제가 생기면 항상 찾게 된다 : 10. 문제해결형 호감
+PART 4. 호감을 만드는 마인드 리셋 keyword 8가지
+Law 24 분위기를 장악해라 : 1. 긍정성
+Law 25 자주 보면 호감이 간다 : 2. 친숙함
+Law 26 감동은 매너에서 나온다 : 3. 배려심
+Law 27 화려한 미사여구를 이기는 힘 : 4. 진솔함
+Law 28 지루함을 잊게 하는 반전매력 : 5. 낯섦
+Law 29 언제든지 떠날 수 있음을 어필한다 : 6. 긴장감
+Law 30 본능적으로 비슷한 사람에게 호감을 느낀다 : 7. 동질성
+Law 31 호감을 위한 필살기 : 8. 전문성
+PART 5. 호감을 부르는 실전 전략Ⅰ
+Law 32 미소는 모든 무장해제의 기본
+Law 33 호감을 높이는 최고의 기술 ‘공감’
+Law 34 상대방의 이름을 부르는 힘
+Law 35 마음을 움직이는 힘, 아이콘택트
+Law 36 대화수준에 따라 호감이 결정된다
+Law 37 평소와 다른 모습 보여주기
+Law 38 인생에 대한 열정은 인간에 대한 호감과 비례한다
+Law 39 호감을 높이는 칭찬의 달인 되는 방법
+Law 40 선택을 잘해야 호감이 따라 온다
+Law 41 T.P.O. 전략으로 호감에 세련미를 장착하자
+Law 42 행운을 끌어당기는 한마디
+PART 6. 호감을 부르는 실전 전략Ⅱ
+Law 43 선물은 양날의 검
+Law 44 과도한 리액션의 악영향
+Law 45 기웃거리면 가벼운 사람으로 끝난다
+Law 46 오버된 칭찬의 오버효과
+Law 47 나이 따지면 한방에 “훅” 간다
+Law 48 비호감유형의 대표주자들
+Law 49 모든 것을 아는 것처럼 행동한 결과
+Law 50 입은 닫고 다른 것을 열자
+부록 | DISC 분석을 통한 나의 호감 전략 세우기
+Epilogue
+괜히 끌리는 사람들, 호감의 법칙 : 네이버 도서
+'괜히 끌리는 사람들, 호감의 법칙'의 네이버 도서 검색 결과입니다.
+search.shopping.naver.com</t>
+        </is>
+      </c>
+      <c r="E155" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760722</t>
+        </is>
+      </c>
     </row>
     <row r="156">
-      <c r="D156" s="6" t="n"/>
+      <c r="A156" s="4" t="inlineStr">
+        <is>
+          <t>출산선물 견적 및 품목 제안서 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="B156" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.10.</t>
+        </is>
+      </c>
+      <c r="C156" s="4" t="inlineStr">
+        <is>
+          <t>09:38</t>
+        </is>
+      </c>
+      <c r="D156" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요 
+임직원 출산 시 제공할 키트를 기획중입니다.
+가격은 키트당 10만원 내외로 구상중이며 메일로 제안서 및 견적 주시면 감사하겠습니다.
+메일주소 ghfjtndk@naver.com 입니다.</t>
+        </is>
+      </c>
+      <c r="E156" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760714</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="inlineStr">
+        <is>
+          <t>창립기념일 직원선물 추천, 제안 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="B157" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.10.</t>
+        </is>
+      </c>
+      <c r="C157" s="4" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="D157" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요?
+회사 창립기념일 직원선물 경험있으신 분들 추천이나 업체 제안 부탁드립니다.
+기존에 10만원 상품권을 지급했는데, 올해에 한해서 실물 상품을 지급해야하는 상황입니다.
+가격 : 10 ~ 15만원
+수량 : 60개
+구매시한 : 3/17(금)
+예산이나 직원 연령대가 다양해서 선물고르기가 쉽지 않은 상황인데 도움 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="E157" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760765</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="inlineStr">
+        <is>
+          <t>[창립 40주년] 기념품 제안서 요청</t>
+        </is>
+      </c>
+      <c r="B158" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.10.</t>
+        </is>
+      </c>
+      <c r="C158" s="4" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="D158" s="6" t="inlineStr">
+        <is>
+          <t>이번에 창립 40주년을 맞이하는데 기념품 및 제안서 쪽지 주시면 감사하겠습니다~</t>
+        </is>
+      </c>
+      <c r="E158" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760741</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="inlineStr">
+        <is>
+          <t>임직원 선물 견적서 요청의 건 (10만원 내)</t>
+        </is>
+      </c>
+      <c r="B159" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.10.</t>
+        </is>
+      </c>
+      <c r="C159" s="4" t="inlineStr">
+        <is>
+          <t>14:41</t>
+        </is>
+      </c>
+      <c r="D159" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요 이번 회사에서 직원들 10만원 내로 선물을 구매 할 예정입니다.
+(인원수 : 100여명)
+좋은 아이디어 및 기획 있으면 메일 회신요청드립니다.
+메일주소 : zheeL2@naver.com</t>
+        </is>
+      </c>
+      <c r="E159" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760809</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="inlineStr">
+        <is>
+          <t>[(주)지란지교시큐리티] 인사팀 총무업무 담당자 모십니다.(경력)</t>
+        </is>
+      </c>
+      <c r="B160" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.13.</t>
+        </is>
+      </c>
+      <c r="C160" s="4" t="inlineStr">
+        <is>
+          <t>07:49</t>
+        </is>
+      </c>
+      <c r="D160" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요. (주)지란지교시큐리티 인사팀 입니다.
+당사에서 총무업무 담당자를 모시게 되어 관련 내용을 올려드리게 되었습니다.
+당사는 국내 최고의 보안솔루션 기술력을 보유한 대한민국 대표 소프트웨어 기업으로 메일보안솔루션인 스펨스나이퍼, 문서중앙화솔루션인 다큐원 등 다수의 제품을 개발 및 보유하고 있습니다.
+이를 기반으로 늘 새로운 연구개발을 통한 해외시장 개척, 신기술 출현에 따른 신규사업으로의 확장 등 현재도 여전히 성장하고 있는 회사입니다.
+많은 관심과 지원 부탁드립니다.
+----------------------------------------------------------------------------------------------------------------------------------
+[모집개요]
+1. 근무부서 : 인사팀
+2. 고용형태 : 정규직
+3. 급여조건 : 경력에 따른 회사내규 적용
+4. 경력조건 : 해당 실무 5년 내외
+5. 근 무 지 : 경기도 성남시 금토로 80번길 37 인피니티타워 W동
+6. 모집기간 : 채용완료 시 종료
+[주요업무]
+1. 자산, 시설, 계약 관리 등
+2. 전산관리(전산장비 구매 및 관리, 네트워크, 도메인 관리 등)
+3. 기타 총무업무 전반
+[지원자격]
+1. 운전가능자(필수)
+2. 컴퓨터 활용능력 우수자
+3. 커뮤니케이션 능력 우수자
+[복리후생]
+1. (부분)선택적근로시간제 운영
+2. 리프레쉬 복지몰 및 명절선물, 가정의달 선물, 생일축하 선물 지원
+3. 종합건강검진 및 단체상해보험 가입
+4. 아침조식 및 구내식당, 카페테리아 운영
+5. 경조금 및 안식휴가, 포상 운영
+6. 리조트 및 제주도 게스트하우스 지원
+7. 사내 마사지케어 운영
+8. 셔틀버스[판교역] 및 통근버스 운영[동부(군자역→잠실역→가락시장역), 서부(신도림역→대림역)지역] 등 직원 친화적 복리후생 제도 운영
+[지원방법]
+1. 이메일 지원 : icjang@jiran.com 으로 이력서(자유양식) 지원</t>
+        </is>
+      </c>
+      <c r="E160" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/760937</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="4" t="inlineStr">
+        <is>
+          <t>창립기념 행사 제안 부탁드립니다!</t>
+        </is>
+      </c>
+      <c r="B161" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.13.</t>
+        </is>
+      </c>
+      <c r="C161" s="4" t="inlineStr">
+        <is>
+          <t>20:29</t>
+        </is>
+      </c>
+      <c r="D161" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요,
+그 동안 코로나로 창립기념일 행사를 조촐하게 진행하다, 코로나 이후 전사 행사로 준비하려 합니다.
+인원은 200명 정도이고, 별도 공간을 대여해 진행하고자 합니다. (장소는 잠실, 송파, 하남, 위례 정도 생각하고 있습니다.)
+창립기념일 진행 프로그램, 기념품 등 제안서 부탁드립니다.
++ 장기근속자 대상 의미있는 선물도 함께 제안주시면 감사하겠습니다.
+01084683366@naver.com</t>
+        </is>
+      </c>
+      <c r="E161" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761146</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="4" t="inlineStr">
+        <is>
+          <t>선택적복지제도 도입 제안드립니다.</t>
+        </is>
+      </c>
+      <c r="B162" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.13.</t>
+        </is>
+      </c>
+      <c r="C162" s="4" t="inlineStr">
+        <is>
+          <t>20:11</t>
+        </is>
+      </c>
+      <c r="D162" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요~
+2023년 토끼해인만큼 껑~~충 도약할 수 있는 한해되길 바랍니다^^
+저희 회사의  ”선택적복지카드“ 안내드립니다.
+아직도 기업의 기념일,경조사나 명절에 상품권이나 선물로 지급하거나 복지몰에서 어쩔수 없는 물품을 구매하시나요?
+획일적인 지원이 아닌 직원 개개인의 필요와 선호도에 따라 선택이 가능한 “선진형 선택적 복지제도” 도입으로 직원들의 만족도 향상에 도움이 되며 통상임금 상승없이 운영가능한 제도입니다. 
+&lt;장점&gt;
+1.부여된 포인트로  모든 가맹점에서 자기개발이나 물품구매등 자유롭게 선택이 가능함으로 직원들의 만족도 향상
+2.메이저 복지몰을 운영함으로  최저가로  다양한 상품구매가능
+3.정산시스템화로 당사에서 전산구축과 관리
+4.복지카드 제휴를 통해 신규 복지기금 확보
+5.연말정산처리 가능 등
+인사담당자분들은 제안서 검토 후 선택적복지제도 도입만 해주시면 됩니다.
+기업명과 메일 쪽지로 주시면 상세한 제안서와 연락처 보내드리겠습니다.
+감사합니다^^</t>
+        </is>
+      </c>
+      <c r="E162" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761145</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="4" t="inlineStr">
+        <is>
+          <t>대표이사 퇴임선물 하신 분 있나요?</t>
+        </is>
+      </c>
+      <c r="B163" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.13.</t>
+        </is>
+      </c>
+      <c r="C163" s="4" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="D163" s="6" t="inlineStr">
+        <is>
+          <t>이번에 대표이사 퇴임이 있어서 선물을 해드리려는데 (지시)
+여러사람 돈 모아야 하다보니 과한 선물은 어렵고 적당한 것이 없네요,
+만년필 생각했다가 백단위라서 가격이 너무 과하고,
+술은 안드시고,
+아이디어가 없습니다
+해보신 분들 경험담을 적어주실 수 있을까요?
+개인들 부담저항선 생각하면 한 30~40정도 선으로 해야할 것 같은데</t>
+        </is>
+      </c>
+      <c r="E163" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761115</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="inlineStr">
+        <is>
+          <t>창립기념일 선물로 반응 좋았던 것들이 어떤게 있었나요?</t>
+        </is>
+      </c>
+      <c r="B164" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.13.</t>
+        </is>
+      </c>
+      <c r="C164" s="4" t="inlineStr">
+        <is>
+          <t>17:52</t>
+        </is>
+      </c>
+      <c r="D164" s="6" t="inlineStr">
+        <is>
+          <t>여기저기 찾아보니 최고의 선물은 창립기념일날 쉬는 것과 돈을 주는 거라고 하는데,
+둘 다 직원들에게 제공해줄 수 있는 환경은 아니다 보니, 다른 것으로 지급해주려고 합니다.
+지금까지 담당자분들께서 진행하셨던 것들 중에 어떤 선물이 반응이 좋으셨나요?</t>
+        </is>
+      </c>
+      <c r="E164" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761126</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="4" t="inlineStr">
+        <is>
+          <t>디지털 헬스케어 플랫폼 스타트업 ﻿인사 운영(HRM) : 2~5년차</t>
+        </is>
+      </c>
+      <c r="B165" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.14.</t>
+        </is>
+      </c>
+      <c r="C165" s="4" t="inlineStr">
+        <is>
+          <t>09:54</t>
+        </is>
+      </c>
+      <c r="D165" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">제목 : 인사 운영(HRM) : 2~5년차
+[기업소개] 
+- 디지털 헬스케어 플랫폼 스타트업
+[복리후생]
+◆ 오전 11시부터 오후 5시까지 코어타임제를 운영
+◆ 연차/반차/반반차로 유연하고 편하게 휴가 사용
+◆ 최고급 하드웨어 및 업무 시 필요한 소프트웨어 모두 제공
+◆ 생일에는 상품권 선물 및 1시간 조기 퇴근 지원
+◆ 취향에 맞는 간식을 무제한 제공
+◆ 업무에 필요한 각종 컨퍼런스 및 의료 관련 교육 참석을 권장하고 비용 지원
+◆ 건강을 관리 및 유지할 수 있도록 종합 건강검진 지원 등등
+[주요업무]
+◆ 전반적인 인사 운영 업무 수행
+◆ 입/퇴사 프로세스 운영
+◆ 인사데이터 수집 및 관리
+[자격요건]
+◆  2 ~ 5년 업무 경력
+[우대사항]
+◆ 스타트업에서 HR 업무 경험이 있으신 분
+◆ 원활한 커뮤니케이션과 능동적인 대인관계 능력을 보유한 분
+◆ HR 트렌드 및 관련 이슈를 지속적으로 스터디 하시는 분
+◆ "긴급 포지션으로 빠른 합류가 가능한 분 우대"
+[면접절차]
+1차 인터뷰 ＞ 2차 인터뷰 ＞ 최종합격
+[근무지] : 서초구
+-----------------------------------------------------------------------------------------------------
+결과는 반드시 피드백 드립니다 &amp; 이번이 아니더라도 좋은 포지션 오픈 시 꾸준히 추천드립니다. :-) 
+아직은 스타트업이지만 알만한 IT기업에서 엄청난 금액으로 투자까지 받았고, 
+회사의 미래를 보고 합류를 하신다면 후회없는 기업이라고 자부합니다.
+자세한 내용은 이력서 접수하신 분께 자세한 회사 소개 및 JD를 보내드리겠습니다.
+면접 시 경험과 실력을 제대로 보여주신다면 연봉은 최종연봉대비 점프업이 가능한
+열린 시스템이오니 관심있으시면 이력서를 MS-word 파일로 편하게 보내주세요.
+보내주시는 이력서는 신중하게 보안을 잘하여 기밀유지 하겠습니다 :)
+무엇보다도 저에게 지원하시면 이력서 정리와 자주 나오는 면접 질문과 답변 전략, 연봉협상까지 도와드리며,
+최종 합격하는 그 순간까지 꼼꼼하게 서포트 할 예정입니다.
+그리고 커리어에 새로운 터닝포인트를 만들어 드리도록 최선을 다하겠습니다 !! 
+궁금한 사항 있으시면 언제든 연락 주시고요. 
+그럼 이력서 기다리겠습니다.
+ ■ 의뢰기업 및 연락처
+- 모멘텀HR 루이스
+   luis@momentum-hr.co.kr
+- 오픈 카카오톡 익명 채팅방 : https://open.kakao.com/o/siCADs1b </t>
+        </is>
+      </c>
+      <c r="E165" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761190</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="inlineStr">
+        <is>
+          <t>회사 사옥 이전 답례품</t>
+        </is>
+      </c>
+      <c r="B166" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.14.</t>
+        </is>
+      </c>
+      <c r="C166" s="4" t="inlineStr">
+        <is>
+          <t>10:41</t>
+        </is>
+      </c>
+      <c r="D166" s="6" t="inlineStr">
+        <is>
+          <t>회사 사옥 이전으로 답례품 추천 부탁드립니다.
+가격은 개당 5만원 아래로 생각하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="E166" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761209</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="inlineStr">
+        <is>
+          <t>창립기념일 기념품</t>
+        </is>
+      </c>
+      <c r="B167" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.14.</t>
+        </is>
+      </c>
+      <c r="C167" s="4" t="inlineStr">
+        <is>
+          <t>15:16</t>
+        </is>
+      </c>
+      <c r="D167" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요.
+혹시 회사 창립기념일 기념품 보통 무엇무엇들 준비하시는지요..?
+저희는 공공기관이다보니 예산이 좀 적습니다ㅜㅜ 인당 1~2만원 내외...
+그동안은 수건이나 우산이 주로 나갔던데
+팀장님이 이번엔 좀 다른거 해보자고 하시더라구요.
+근데 예산이 너무 적어서 범위도 좁고 ㅎㅎ...
+선배님들은 보통 어떤걸 준비하시는지 궁금해서 글 남깁니다.</t>
+        </is>
+      </c>
+      <c r="E167" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761300</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="4" t="inlineStr">
+        <is>
+          <t>창립기념일 기념품으로 반응이 좋았던게 어떤게 있으셨나요?</t>
+        </is>
+      </c>
+      <c r="B168" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.15.</t>
+        </is>
+      </c>
+      <c r="C168" s="4" t="inlineStr">
+        <is>
+          <t>12:29</t>
+        </is>
+      </c>
+      <c r="D168" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요.
+금년도 창립기념일 선물 진행하고자 하는데, 크게 진행 예정이라, 선물도 대부분 마음에 드셨으면 좋겠는데요.
+금액은 20만원대인데, 제조업이라 나이대가 40-50대 분들이 주로 계시긴 합니다.
+혹시 반응 좋으셨던 선물이 어떤게 있으셨는지 의견 나눠주실 수 있으신가요?</t>
+        </is>
+      </c>
+      <c r="E168" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761446</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="4" t="inlineStr">
+        <is>
+          <t>창립기념일 행사 문의 (+체육대회 프로그램 문의)</t>
+        </is>
+      </c>
+      <c r="B169" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.14.</t>
+        </is>
+      </c>
+      <c r="C169" s="4" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D169" s="6" t="inlineStr">
+        <is>
+          <t>인원은 300명 기준으로 성남시 입니다.
+1. 컨벤션홀 대관하여 진행강사&amp;프로그램 및 기념품 제안
+2. 실내 체육관 또는 운동장 대관하여 체육대회 진행&amp;기념품 제안
+두가지 정도 생각 중에 있는데 관련하여
+일정표&amp;견적 제안주시거나
+다른 행사 프로그램 등 아이디어 부탁 드립니다. ^^
+mjmj5611@naver.com</t>
+        </is>
+      </c>
+      <c r="E169" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761356</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="4" t="inlineStr">
+        <is>
+          <t>창립기념일 직원 선물 추천부탁드립니다</t>
+        </is>
+      </c>
+      <c r="B170" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.16.</t>
+        </is>
+      </c>
+      <c r="C170" s="4" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D170" s="6" t="inlineStr">
+        <is>
+          <t>창립기념일 직원선물 추천부탁드립니다.
+금액이 적어서 기존과 다른 걸 찾고 싶은데,
+쉽지가 않네요
+금액대 : 부가세 포함 1.5~2만원 미만
+수량 : 600~800개 정도입니다.
+납기는 여유가 있습니다.
+추천하실 품목, 제안 모두 환영합니다.
+메일 주소
+bear5436@naver.com 입니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="E170" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761653</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="4" t="inlineStr">
+        <is>
+          <t>일본인 바이어 접대</t>
+        </is>
+      </c>
+      <c r="B171" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.16.</t>
+        </is>
+      </c>
+      <c r="C171" s="4" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="D171" s="6" t="inlineStr">
+        <is>
+          <t>이번에 회사로 일본인 바이어가 방문을 하는데 부담이 되네요...
+다과를 뭘 준비해야 좋아하실까요?
+간단한 선물 같은 것도 준비하고 싶은데 뭐가 좋을까요?
+추천 좀 부탁드리겠습니다!</t>
+        </is>
+      </c>
+      <c r="E171" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761625</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="4" t="inlineStr">
+        <is>
+          <t>회사 창립 10주년 기념행사</t>
+        </is>
+      </c>
+      <c r="B172" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.16.</t>
+        </is>
+      </c>
+      <c r="C172" s="4" t="inlineStr">
+        <is>
+          <t>13:42</t>
+        </is>
+      </c>
+      <c r="D172" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요
+회사 창립 10주년 맞이하여 행사를 준비하고 있습니다.
+워크숍도 괜찮고 행사기획 및 이벤트, 기념품 등 좋은 아이디어 있으면 공유부탁드리비니다.
+1. 기업형태 : 세무회계 사무소 약30명
+2. 회사위치 : 구로디지털단지역 부근</t>
+        </is>
+      </c>
+      <c r="E172" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761662</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="4" t="inlineStr">
+        <is>
+          <t>창립20주년 직원 선물 어떤거 하시나요?</t>
+        </is>
+      </c>
+      <c r="B173" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.15.</t>
+        </is>
+      </c>
+      <c r="C173" s="4" t="inlineStr">
+        <is>
+          <t>16:49</t>
+        </is>
+      </c>
+      <c r="D173" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요. 회사 창립20주년을 맞아 직원들에게 선물을 지급하려고 합니다.
+사람마다 원하는 게 다르겠지만 다른 회사들에서 했을 때 직원들이 많이 만족한 선물 뭐가 있을까요?
+총 15명이며, 개당 단가는 10~20만원 생각하고 있습니다.
+추천 부탁드립니다.
+제안서로 많이 주시는 것 같아 메일주소 남깁니다.
+antjo1119@naver.com</t>
+        </is>
+      </c>
+      <c r="E173" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761515</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="4" t="inlineStr">
+        <is>
+          <t>근로자의날 선물 제안 요청</t>
+        </is>
+      </c>
+      <c r="B174" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.16.</t>
+        </is>
+      </c>
+      <c r="C174" s="4" t="inlineStr">
+        <is>
+          <t>16:58</t>
+        </is>
+      </c>
+      <c r="D174" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요.
+중견기업 총무 담당자입니다.
+당사 근로자의날 선물 지급 관련 제안서 요청드립니다.
+-지급 인원 : 200명 내외
+-예 산 : 인당 10만원 내외
+-희망 상품군 : 생활가전
+-지급 대상 참고사항
+1) 연령 분포 : 20대 30% 30대 30% 40대 30% 그외 10%
+2) 남녀 성비 : 남 50% 여 50%
+-과거 지급 품목 참고사항
+1) 2020년 : 무선청소기 / 종아리마사지기
+2) 2021년 : 로봇청소기 / 공기청정기
+3) 2022년 : 전기그릴 / 여행용캐리어 / 프라이팬세트
+-희망 상품 참고 사항
+1) 사전 선호도 조사를 통해 2~3종 상품을 최종 선정하여 개인의 선호에 따라 신청 지급 예정
+2) 가전 제품 선호
+3) 브랜드 인지도가 높은 상품 선호
+4) 식품류 및 아이디어 상품, 의류 등 생활용품 비선호
+좋은 제안 부탁드리며, 단순한 상품 카탈로그 보다는 제안 요청드리는 사항을 참고하여
+선정 및 제안 부탁드립니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="E174" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761750</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="4" t="inlineStr">
+        <is>
+          <t>창립기념일 기념품 제안</t>
+        </is>
+      </c>
+      <c r="B175" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.17.</t>
+        </is>
+      </c>
+      <c r="C175" s="4" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="D175" s="6" t="inlineStr">
+        <is>
+          <t>저희가 예산이 크진 않아서 1~3만원대 기념품 제안받고 싶습니다!
+직원은 30명정도 입니다.
+메일주세요!
+jilk0202@gmail.com</t>
+        </is>
+      </c>
+      <c r="E175" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761855</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="4" t="inlineStr">
+        <is>
+          <t>근로자의 날 기념 임직원 선물 상품 제안서 보내주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="B176" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.17.</t>
+        </is>
+      </c>
+      <c r="C176" s="4" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="D176" s="6" t="inlineStr">
+        <is>
+          <t>날짜 : 4월 마지막 주 까지
+수량 : 1,000개
+10,000원 대 / 30,000원 대 / 50,000원 대 / 70,000원 대 / 100,000원 대
+자유롭게 상품제안서 보내주시기 바랍니다.
+다양한 상품중 인사팀이 먼저 선별하여 팀장들과 상의 후 구입할 예정입니다.
+가격을 인당 100,000원에 맞춰 구매 할 예정입니다.
+ex) 30,000원 대 + 70,000원 대 / 100,000원 대 / 50,000원 대 + 50,000원 대 / 10,000원 대 90,000원 대
+그래서 다양한 상품을 원하고 있습니다.
+성비는 여자 50% 남자 50% 이고,
+나이는 20대 20% 30~40대 80% 입니다.
+02yllee@naver.com 입니다.
+판촉물, 선물, 사은품, 기프트</t>
+        </is>
+      </c>
+      <c r="E176" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761959</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="4" t="inlineStr">
+        <is>
+          <t>[(주)지란지교시큐리티] 인사팀 총무업무 담당자 모십니다.(경력)</t>
+        </is>
+      </c>
+      <c r="B177" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.17.</t>
+        </is>
+      </c>
+      <c r="C177" s="4" t="inlineStr">
+        <is>
+          <t>16:54</t>
+        </is>
+      </c>
+      <c r="D177" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요. (주)지란지교시큐리티 인사팀 입니다.
+당사에서 총무업무 담당자를 모시게 되어 관련 내용을 올려드리게 되었습니다.
+당사는 국내 최고의 보안솔루션 기술력을 보유한 대한민국 대표 소프트웨어 기업으로 메일보안솔루션인 스펨스나이퍼, 문서중앙화솔루션인 다큐원 등 다수의 제품을 개발 및 보유하고 있습니다.
+이를 기반으로 늘 새로운 연구개발을 통한 해외시장 개척, 신기술 출현에 따른 신규사업으로의 확장 등 현재도 여전히 성장하고 있는 회사입니다.
+많은 관심과 지원 부탁드립니다.
+----------------------------------------------------------------------------------------------------------------------------------
+[모집개요]
+1. 근무부서 : 인사팀
+2. 고용형태 : 정규직
+3. 급여조건 : 경력에 따른 회사내규 적용
+4. 경력조건 : 해당 실무 5년 내외
+5. 근 무 지 : 경기도 성남시 금토로 80번길 37 인피니티타워 W동
+6. 모집기간 : 채용완료 시 종료
+[주요업무]
+1. 자산, 시설, 계약 관리 등
+2. 전산관리(전산장비 구매 및 관리, 네트워크, 도메인 관리 등)
+3. 기타 총무업무 전반
+[지원자격]
+1. 운전가능자(필수)
+2. 컴퓨터 활용능력 우수자
+3. 커뮤니케이션 능력 우수자
+[복리후생]
+1. (부분)선택적근로시간제 운영
+2. 리프레쉬 복지몰 및 명절선물, 가정의달 선물, 생일축하 선물 지원
+3. 종합건강검진 및 단체상해보험 가입
+4. 아침조식 및 구내식당, 카페테리아 운영
+5. 경조금 및 안식휴가, 포상 운영
+6. 리조트 및 제주도 게스트하우스 지원
+7. 사내 마사지케어 운영
+8. 셔틀버스[판교역] 및 통근버스 운영[동부(군자역→잠실역→가락시장역), 서부(신도림역→대림역)지역] 등 직원 친화적 복리후생 제도 운영
+[지원방법]
+1. 이메일 지원 : icjang@jiran.com 으로 이력서(자유양식) 지원
+2. 잡코리아 지원 : 지란지교시큐리티 채용 - 2023년 상반기 각 부문 신입/경력 채용 | 잡코리아 (jobkorea.co.kr)
+3. 사람인 지원 : [(주)지란지교시큐리티] 각 부문별 신입/경력 채용(D-11) - 사람인 (saramin.co.kr)</t>
+        </is>
+      </c>
+      <c r="E177" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/761956</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="4" t="inlineStr">
+        <is>
+          <t>근무복 제작 업체 제안 및 추천</t>
+        </is>
+      </c>
+      <c r="B178" s="5" t="inlineStr">
+        <is>
+          <t>2023.02.27.</t>
+        </is>
+      </c>
+      <c r="C178" s="4" t="inlineStr">
+        <is>
+          <t>16:11</t>
+        </is>
+      </c>
+      <c r="D178" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요 근무인원이 200명 정도인 업체입니다.
+근무복을 제작하는 업체를 알아보고 있습니다.
+사용 현황은
+1. 하복/춘추복(동복) 제작하는 업체를 찾습니다.
+2. 약 1년 사용량 하복 200벌 정도, 춘추복(동복) 300벌 정도
+3. 단가는 하복은 2.5만원이하, 춘추복(동복) 2.5만원 이하로 제작하고 싶습니다.(협의 가능합니다)
+4. 현재 입고 있는 근무복 기준으로 제작하고 싶습니다.
+5. 경기도 소재에 있는 업체면 좋겠습니다. 저희가 인천 있는 제조업 회사 입니다.
+다른 지역도 거래가 괜찮으시면 댓글 부탁 드립니다.
+가능한 빠른 거래 및 계약 하고 싶습니다. 많은 댓글 부탁 드립니다.</t>
+        </is>
+      </c>
+      <c r="E178" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/759036</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="4" t="n"/>
+      <c r="B179" s="5" t="n"/>
+      <c r="C179" s="4" t="n"/>
+      <c r="D179" s="6" t="n"/>
+      <c r="E179" s="5" t="n"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="4" t="n"/>
+      <c r="C180" s="4" t="n"/>
+      <c r="D180" s="6" t="n"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="4" t="n"/>
+      <c r="D181" s="6" t="n"/>
+    </row>
+    <row r="182">
+      <c r="D182" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gamdong.xlsx
+++ b/gamdong.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E182"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6350,23 +6350,1117 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="4" t="n"/>
-      <c r="B179" s="5" t="n"/>
-      <c r="C179" s="4" t="n"/>
-      <c r="D179" s="6" t="n"/>
-      <c r="E179" s="5" t="n"/>
+      <c r="A179" s="4" t="inlineStr">
+        <is>
+          <t>사내복지기금 정년퇴직자 기념품 지급</t>
+        </is>
+      </c>
+      <c r="B179" s="5" t="inlineStr">
+        <is>
+          <t>2023.03.20.</t>
+        </is>
+      </c>
+      <c r="C179" s="4" t="inlineStr">
+        <is>
+          <t>16:07</t>
+        </is>
+      </c>
+      <c r="D179" s="6" t="inlineStr">
+        <is>
+          <t>사내복지기금으로 정년퇴직자 기념품(기념패+순금 1~2돈) 줄수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E179" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/762196</t>
+        </is>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" s="4" t="n"/>
-      <c r="C180" s="4" t="n"/>
-      <c r="D180" s="6" t="n"/>
+      <c r="A180" s="4" t="inlineStr">
+        <is>
+          <t>가정의 달 임직원 선물</t>
+        </is>
+      </c>
+      <c r="B180" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.25.</t>
+        </is>
+      </c>
+      <c r="C180" s="4" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
+      </c>
+      <c r="D180" s="6" t="inlineStr">
+        <is>
+          <t>직원 200명 1인 예산 5만원
+가정의달 임직원 선물 제안 부탁드립니다.
+pjk5423@naver.com 으로 또는 쪽지도 좋습니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="E180" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767949</t>
+        </is>
+      </c>
     </row>
     <row r="181">
-      <c r="C181" s="4" t="n"/>
-      <c r="D181" s="6" t="n"/>
+      <c r="A181" s="4" t="inlineStr">
+        <is>
+          <t>《멘탈을 관리해야 인생이 달라진다》</t>
+        </is>
+      </c>
+      <c r="B181" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.25.</t>
+        </is>
+      </c>
+      <c r="C181" s="4" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+      <c r="D181" s="6" t="inlineStr">
+        <is>
+          <t>《멘탈을 관리해야 인생이 달라진다》는 절대 무너지지 않을 멘탈 관리의 비밀이 담긴 책입니다
+당신을 뜨겁게 응원합니다
+저자 루나
+출판사 굿모닝미디어
+사람들이 몸의 건강을 위해 근력운동은 꾸준히 하면서도 왜 내면의 근육을 단련하는 데에는 소홀할까요. 이 책은 내면 근육을 단단하게 할 때 감사와 사랑, 풍요로운 마음이 점점 커져 얼마든지 일상에서 원하는 것을 이룰 수 있고, 부를 끌어당길 수 있다고 말합니다. 삶을 살아가는 힘과 힘든 상황을 감당하는 힘의 바탕도 바로 ‘내면의 근육’에 있다는 것입니다. 이 내면 근육을 주기적으로 단단하게 단련할 때 상처받지 않고 상처주지 않으면서 부드러움에 기반한 강철멘탈을 소유할 수 있다는 것입니다.
+멘탈이 모든 것을 결정하며, 모든 것은 자신의 내면으로부터 시작되기에, 이 책은 ‘나’라는 존재를 바르게 아는 것과 나를 방해하는 적의 실체를 알아차리는 것에서 출발합니다. 그리고 인생 도약을 위한 이러한 시작은 ‘마음의 집’ 들여다보기와 알아차리기입니다.
+현재의 ‘마음의 집’은 당신을 행복하게 하나요. 혹시 그 집이 당신을 힘들게 하고 있지는 않나요. 그 집을 이루는 자신의 내면에서는 어떤 일이 일어나고 있나요. 그 집은 누가 만들고 무엇으로 지어져 있나요. 그 집의 진짜 주인은 누구인가요. 마음의 집에서는 무슨 이유로 나와 에고가 끊임없이 다투나요. 그 집을 바꾸거나 고쳐야 한다면 어떻게 해야 하나요. 이러한 것들, 즉 자신의 내면을 자각하는 깨어남이 일어나면 깨달음과 알아차림이 일어나고, 궁극에는 균형 잡힌 마음 상태를 유지하게 되어 행복감과 함께 원하는 것을 이룰 힘을 갖게 된다는 것입니다.
+이러한 마음 탐색의 과정은 내면 근육을 단련하기 위한 내면 여행입니다. 이 여행은 자기 이해로 시작하여 내면 청소를 거쳐 의식 성장을 이루어냄으로써 안락함, 편안함, 만족감, 따뜻함, 풍요로운 삶을 자신에게 뜨겁게 선물하는, 그리하여 새로 지은 자신만의 마음의 집에 정착하는 여정입니다. 이 여행의 과정에는 마음 치유와 함께 마음의 집을 새로 짓고 고치거나 꾸며 쓰기 위한 다양한 멘탈 관리 방법들이 제시되고 있습니다.
+이 책은 원하는 것을 이루도록 의식 성장의 길을 안내합니다. 부를 쫓지 않고도 부를 따라오게 하는 방법을 공유합니다. ‘에고’를 알아차리고 마음을 치유하며 삶을 가꿀 수 있도록 도울 것입니다. 이 책으로 멘탈 관리를 위한 셀프 훈련을 할 수 있습니다. 의식을 성장시켜 삶이 풍요로워지는 경험을 할 것입니다. 우리 안에는 터무니없는 믿음이나 생각이 있습니다. 그것들이 정보를 왜곡시키거나 자신을 고통스럽게 만들어버립니다. 우리는 어떤 ‘상(相)’을 정해놓고 그것이 변하지 않을 거라고 굳게 믿는 경향이 있습니다. ‘자신이 옳다는 생각, 그래서 그 생각대로 되어야 한다는 믿음’이 존재하기도 합니다. 그것을 진정으로 이해하게 되면, 많은 고통이 해소될 수 있습니다.
+이 책을 통해 ‘있는 그대로’의 자신을 알아가는 기쁨을 얻을 수 있습니다. 자신과 현실을 마주할 용기를 얻어 앞으로 나아갈 수 있습니다.
+저자 루나는 수학 교사로 20여 년간 근무했습니다. 이때 학교를 수행의 장으로 삼아 저자도 학생들도 성장하였습니다.
+10대 때부터 ‘나는 누구인가?, 어떻게 살아야 하는가?, 세상은 어떤 곳인가?’ 본질에 대해 질문을 던져왔습니다. 철학, 종교 공부를 병행하고, 마음공부, 수행, 시크릿, 트랜서핑 등에 대한 원리를 체화하며 인식의 틀을 확장해왔습니다. 깨어남, 깨달음, 알아차림, 의식 성장, 치유, 정화, 풍요, 시크릿 등에 대해 자각한 바 있습니다.
+현재는 자기 이해와 나다움, 내면 치유, 의식 성장, 멘탈 관리, 스트레스 관리, 풍요로운 삶에 대한 연구와 공헌을 목적으로 치유성장연구소를 운영하고 있습니다. 그리고 휴먼디자인 공인차트분석가로도 활동하며, 사람들이 자기 본성을 이해하고 자신으로 살아가도록 돕고 있습니다.
+이 책의 목차는 다음과 같습니다.
+프롤로그 /
+성장하고 원하는 대로 이루려면?
+질문의 힘
+1장 마음의 집
+헌 집 줄게, 새집 다오!
+마음이 뭐야? (feat 마인드)
+그 생각, 진짜야?
+도대체 왜 화날까?
+마음대로 하고 싶다고!
+‘나’라고 믿는 것들
+마인드는 진실을 알 수 있을까?
+2장 마음아, 왜 힘들어?
+마음아, 왜 힘들어?
+내가 옳아! (그러니 내 말대로 해!)
+마음에 안 들어~
+난 왜 저렇게 못 하지?
+이건 너무 중요해!
+과거로! 미래로!
+감정 서핑 타고! 타고!
+감정을 대하는 태도
+요즘 우울해…
+2차 감정을 느끼는가?
+3장 정화야~ 내면 청소를 부탁해!
+내면 근육 단련하기
+스트레스 관리하는 법
+생각, 믿음 들여다보기
+메타인지로 바라보기
+마음 찾아 떠나보자!
+수용하기
+몸과 마음의 휴식 타임!
+내면을 청소하자!
+감정 손님 맞이하기
+마음 비우기
+정화하러 떠나보자!
+이젠 널 보내줄게…
+안녕! 내면 아이!
+내면 아이야~ 괜찮니?
+치유하러 떠나보자!
+자연이 주는 지혜와 치유
+4장 진짜 나로 살아가기
+오늘도 가면무도회!
+오늘도 가면무도회! 2
+진짜 난 누구?
+영혼의 느낌
+자기기만 알아차리기
+몸이 말해요!
+자존감 플렉스
+자신을 지켜라!
+깨어남, 깨달음, 깨어있음과 알아차림
+자신의 길을 걸어라!
+5장 삶을 대하는 올바른 태도로 리셋하기
+삶을 대하는 태도
+삶이 전하는 메시지
+진실과 마주하기
+할 일을 한다!
+어떻게 바라보는가?
+감정적 반응 습관 알아차리기
+온전한 사랑
+공헌하기
+삶의 흐름에 내맡기고 받아들이기
+감사하기
+내면이 현실로!
+원하는 대로 이루려면~
+애쓰지 않고 초연하기
+될 때가 되면 된다!
+성장 마인드셋
+이번 달, 삶 정비했어?
+6장 다차원 풍요를 누려봐!
+통합적 존재로서의 풍요
+하루의 시작과 끝이 풍요를 결정한다
+영혼을 존중하자!
+정신줄 지켜!
+몸은 건강하니?
+내 세상은 어떤 색채일까?
+통합적인 나 관리하기 : 영혼, 정신, 몸, 정서
+부유해지려면?
+어떤 관계를 원하는가?
+진짜 하고 싶은 일은 뭐야?
+언제, 어디서, 누구와 편안하고 행복하니?
+통합적인 내 세상 관리하기 : 부, 관계, 직업
+풍요의 긍정 확언
+건강하고 충만하고 평안하라!
+7장 거울 세상
+거울처럼 반영하는 세상
+깨어나 자각하라!
+변화의 물결
+균형을 잡아라!
+그저 존재하라!
+에필로그 /
+다시 용기 내어 도전하라! 한 번도 실패하지 않은 것처럼…
+참고 자료</t>
+        </is>
+      </c>
+      <c r="E181" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767932</t>
+        </is>
+      </c>
     </row>
     <row r="182">
-      <c r="D182" s="6" t="n"/>
+      <c r="A182" s="4" t="inlineStr">
+        <is>
+          <t>창립 10주년 행사 제안요청</t>
+        </is>
+      </c>
+      <c r="B182" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.25.</t>
+        </is>
+      </c>
+      <c r="C182" s="4" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+      <c r="D182" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요
+다가오는 10월 창립 10주년으로 임직원 참여형 창립기념 행사를 진행하려고 하는데 이벤트/행사 제안 부탁드립니다.
+일정 : 10월 첫쨰주
+장소 : 서울시 영등포구 인근 위치
+인원 : 총 150명 (수도권 100명 , 지방 50명)
+요청사항
+1. 서울 인근 약 100명 정도 참여 가능한 별도 공간대여 및 기타 이벤트
+2. 사무실 내 음식 케이터링 서비스 (조리 불가)
+3. 직원 선물
+4. 창립기념 관련 기타 이벤트 및 행사 등 추천 요청
+제안서 발송처 4246tjsdk@naver.com</t>
+        </is>
+      </c>
+      <c r="E182" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767920</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="4" t="inlineStr">
+        <is>
+          <t>5월 조직력 강화 행사 (135명)</t>
+        </is>
+      </c>
+      <c r="B183" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.25.</t>
+        </is>
+      </c>
+      <c r="C183" s="4" t="inlineStr">
+        <is>
+          <t>09:13</t>
+        </is>
+      </c>
+      <c r="D183" s="6" t="inlineStr">
+        <is>
+          <t>135명정도 되는 중소기업 조직력 강화 행사를 진행하려 합니다.
+뷔페를 먹으며 간단히 진행할 수 있는 레이크레이션 및 행사진행과 함께
+추첨을 통한 선물 증정을 하고 싶은데요.
+어떤식으로 하면 좋을까요?
+dudco0712@naver.com</t>
+        </is>
+      </c>
+      <c r="E183" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767795</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="4" t="inlineStr">
+        <is>
+          <t>근무중 이어폰 어찌 대응하시나요?</t>
+        </is>
+      </c>
+      <c r="B184" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.24.</t>
+        </is>
+      </c>
+      <c r="C184" s="4" t="inlineStr">
+        <is>
+          <t>19:02</t>
+        </is>
+      </c>
+      <c r="D184" s="6" t="inlineStr">
+        <is>
+          <t>현장직이있는 회사입니다.
+요근래. 젊은층사이에서 현장작업시 이어폰(노래)를 끼고 작업합니다.
+물론 자유의사 존중하는데 혹시나 노래나 라디오소리로인해 주의소리를못듣거나 부주의가발생되면 어찌되나요
+현장일이라 다치면 산재인데 이런이어폰같은거로 인해 다쳐도 산재이겠지요?
+회사차원에선 계속 권고 하는방법 뿐인가요?</t>
+        </is>
+      </c>
+      <c r="E184" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767760</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="4" t="inlineStr">
+        <is>
+          <t>사내협력업체 근로자의날 선물</t>
+        </is>
+      </c>
+      <c r="B185" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.24.</t>
+        </is>
+      </c>
+      <c r="C185" s="4" t="inlineStr">
+        <is>
+          <t>14:02</t>
+        </is>
+      </c>
+      <c r="D185" s="6" t="inlineStr">
+        <is>
+          <t>사내 협력업체 직원들에게 근로자의날 선물을 지급코자 하는데.
+직원들은 복리후생비 처리하는데. 사내협력업체 직원들에게는 어떤 경비로 지급하는게 적당할까요?</t>
+        </is>
+      </c>
+      <c r="E185" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767674</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="4" t="inlineStr">
+        <is>
+          <t>행사 사은품은 어떤걸로?</t>
+        </is>
+      </c>
+      <c r="B186" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.24.</t>
+        </is>
+      </c>
+      <c r="C186" s="4" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="D186" s="6" t="inlineStr">
+        <is>
+          <t>5월 중순즘 100여명 정도 대상으로 행사가 진행되는데 혹시 오시는 분 선물로 추천하는 것들이 있을까요?
+ubs나 보조배터리 말고 실용적인게 있으면 좋을거 같은데요ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="E186" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767649</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="4" t="inlineStr">
+        <is>
+          <t>참치세트 선물 어떤가요?</t>
+        </is>
+      </c>
+      <c r="B187" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.24.</t>
+        </is>
+      </c>
+      <c r="C187" s="4" t="inlineStr">
+        <is>
+          <t>11:38</t>
+        </is>
+      </c>
+      <c r="D187" s="6" t="inlineStr">
+        <is>
+          <t>근로자의날 선물 알아야봐야 하는데
+비용이 너무 정해져있어요 ㅜ
+샘플 먼저 받아보려고 ㅈㅁㅋ에서
+동원참치 120g 12캔 선물세트 보고
+무배 27,820원에 샀는데 이거 근로자의날 선물로 어때보이세요?</t>
+        </is>
+      </c>
+      <c r="E187" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767643</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="4" t="inlineStr">
+        <is>
+          <t>창립기념일 임직원 선물 제안 요청*^^*</t>
+        </is>
+      </c>
+      <c r="B188" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.24.</t>
+        </is>
+      </c>
+      <c r="C188" s="4" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="D188" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요
+당사 창립기념일 맞이하여 아래와 같이 임직원 선물 제안 요청드립니다.
+1. 예산 : 35,000원 / 1EA (VAT포함)
+2. 수량 : 150EA (어바웃)
+3. 제안 품목
+1) 주방가전 : 냄비, 팬류 등
+2) 의류 : 바람막이, 자켓 등
+4. 제안 방법 : 이메일
+# 제안 주시는 모든 분들께 항상 감사의 마음을 가지고 있습니다. 귀 사업의 발전을 기원합니다. 감사합니다.*^^*</t>
+        </is>
+      </c>
+      <c r="E188" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767634</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="4" t="inlineStr">
+        <is>
+          <t>행사기념픔 어떤게 있을까오 ?</t>
+        </is>
+      </c>
+      <c r="B189" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.22.</t>
+        </is>
+      </c>
+      <c r="C189" s="4" t="inlineStr">
+        <is>
+          <t>17:58</t>
+        </is>
+      </c>
+      <c r="D189" s="6" t="inlineStr">
+        <is>
+          <t>행사를 개최하게되었는데
+행사 기념품 어떤게 좋을까요 ??</t>
+        </is>
+      </c>
+      <c r="E189" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767547</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="4" t="inlineStr">
+        <is>
+          <t>근로자의 날 선물 어떤거 준비하시나요?</t>
+        </is>
+      </c>
+      <c r="B190" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.21.</t>
+        </is>
+      </c>
+      <c r="C190" s="4" t="inlineStr">
+        <is>
+          <t>13:37</t>
+        </is>
+      </c>
+      <c r="D190" s="6" t="inlineStr">
+        <is>
+          <t>작년에는 타올했다고 하는데
+올해는 뭐 어떤게 좋을까요</t>
+        </is>
+      </c>
+      <c r="E190" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767439</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="4" t="inlineStr">
+        <is>
+          <t>우수직원 선물</t>
+        </is>
+      </c>
+      <c r="B191" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.20.</t>
+        </is>
+      </c>
+      <c r="C191" s="4" t="inlineStr">
+        <is>
+          <t>14:18</t>
+        </is>
+      </c>
+      <c r="D191" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요.
+이번에 회사에서 우수직원 선정하여 시상하려고 합니다.
+20만원대에서 선물 구매하려고 하는데 어떤 게 좋을지 의견 주시면 감사하겠습니다.
+현재는 소고기 생각하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="E191" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767262</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="4" t="inlineStr">
+        <is>
+          <t>야유회나,워크샵 직원들 기념품? 뭐받고 싶으세요?</t>
+        </is>
+      </c>
+      <c r="B192" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.20.</t>
+        </is>
+      </c>
+      <c r="C192" s="4" t="inlineStr">
+        <is>
+          <t>10:48</t>
+        </is>
+      </c>
+      <c r="D192" s="6" t="inlineStr">
+        <is>
+          <t>야유회 추진을 하고있는데 기념될만한 ? 선물을 준비 하려고 하는데
+생각 나는게 없어서요.
+타올 텀블러 핸드폰충전기, 우산 등...뭐 의견은 나왔는데
+직원들이 호응이 제일 좋은건 무엇일까요??
+뭐 머니머니해도 머니겠지만 ?
+머리 쥐어짜다가
+조언부탁드려 봅니다.</t>
+        </is>
+      </c>
+      <c r="E192" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767214</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="4" t="inlineStr">
+        <is>
+          <t>[GS계열사 텐바이텐] 3~5년차 채용/교육/조직문화 담당자 채용</t>
+        </is>
+      </c>
+      <c r="B193" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.20.</t>
+        </is>
+      </c>
+      <c r="C193" s="4" t="inlineStr">
+        <is>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="D193" s="6" t="inlineStr">
+        <is>
+          <t>🎈텐바이텐과 함께 할 인사담당자를 찾고 있어요!🎈
+텐바이텐은 고객에게 색다른 즐거움을 선물함으로써 그들의 일상이 따뜻하고 행복한 경험으로 채워지기를 꿈꾸는, No.1 디자인 전문 커머스 입니다.
+'디자인 감성채널'이라는 카피에 걸맞게, 텐바이텐은 고객의 감성을 충족시키기 위하여 언제나 노력하고 있으며 고객과의 공감을 가장 중요하게 생각합니다.
+"You're already different"라는 슬로건처럼, 단지 우리만 특별한 것이 아닌 텐바이텐을 이용하는 모든 고객이 자부심을 가질 수 있도록 하는 것이 텐바이텐의 목표이며,
+늘 새로운 것을 시도하고, 신뢰받는 기업이 되고자 합니다.
+✔어떤 업무를 하게 되나요?
+1. 채용업무 (70%)
+• 채용기획 : 채용 프로세스 개선, 온보딩 기획, 인건비 계획 수립 등
+• 채용운영 : 채용 공고 오픈, 면접실시, 신규입사자 OJT 및 온보딩 프로그램 운영, 입퇴사 관리
+2. 교육 및 조직문화 (30%)
+• 법정 필수교육 및 직무교육 기획/운영 (교육 커리큘럼 기획 및 운영)
+• 조직 활성화 프로그램 기획/운영 (팀빌딩 프로그램, 협업 커뮤니케이션 등)
+• 노사협의회 운영
+✔이런 분을 찾고 있어요!
+• 채용/교육/조직문화 인사 업무 경력 3~5년
+• 인하우스 리크루팅 담당자로 채용 프로세스를 기획 및 운영 경험이 있으신 분
+• 교육과정 운영/관리 및 사내 강의 경험이 있으신 분
+• 다양한 이해관계자와의 유연하고 명확한 커뮤니케이션 능력 및 탁월한 문제해결력을 가지신 분
+• 성장과 몰입을 지원하고 향상시키는 조직문화를 고민하고 실행하실 수 있는 분
+• HR 트렌드 및 근로기준법/노동법 이해가 높은 분
+✔이런 분이라면 더 좋아요!
+• HRM &amp; HRD 인사전반 경험이 있으신 분
+• 스타트업 채용 및 인사업무경력이 있으신 분
+• Direct Sourcing으로 인재를 채용한 경험이 있으신 분
+✔전형절차 안내해드려요!
+ㆍ서류전형 &gt; 1차면접 &gt; 온라인 인성검사 &gt; 2차면접 &gt; 처우협의
+ㆍ고용형태 : 정규직 (시용기간 3개월)
+ㆍ필수제출 사항 : 이력서 및 경력기술서
+ㆍ마감일 : 채용 시 마감
+✔텐바이텐이 즐거운 감성 놀이터가 될 수 있도록 혜택을 제공해드려요!
+ㆍ몰입과 성장을 위해
+자기개발과 Refresh를 위한 연 50만원의 지원금
+업무에 필요한 교육과 도서 지원
+BGM이 흐르는 아늑한 라운지와 쾌적한 업무환경
+ㆍ일과 삶을 조화롭게
+자유로운 연차 사용 반반차제도와 생일휴가까지!
+건강보다 중요한건 없어요, 2년마다 받을 수 있는 종합건강검진
+Refresh를 위해 매 3년마다 장기근속 휴가 5일과 휴가비를 드려요
+월 1시간의 Free time! 자율 조기퇴근/늦은 출근
+ㆍ즐겁게 일해요
+한달에 한번 점심시간이 2시간! Happy Lunch
+휴양시설 걱정 없어요, 속초 아지트와 제휴 리조트 할인
+조직활동비 지원을 통해 팀원들과 친목을 다져요
+두둑한 할인혜택! 텐바이텐/GS SHOP 임직원 할인
+✔근무지 : 텐바이텐 본사 (서울시 종로구 대학로 57 홍익대학교 대학로캠퍼스 교육동 14층)
+👉채용공고 확인&amp;지원하기 : 텐바이텐 채용 - [텐바이텐] 인사담당자 (채용/교육) 채용 | 잡코리아 (jobkorea.co.kr)</t>
+        </is>
+      </c>
+      <c r="E193" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767205</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="4" t="inlineStr">
+        <is>
+          <t>워크샵 기념품 문의</t>
+        </is>
+      </c>
+      <c r="B194" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.20.</t>
+        </is>
+      </c>
+      <c r="C194" s="4" t="inlineStr">
+        <is>
+          <t>09:42</t>
+        </is>
+      </c>
+      <c r="D194" s="6" t="inlineStr">
+        <is>
+          <t>워크샵 종료 후 전 직원들에게 기념품을 지급하려고합니다.
+어떤게 좋을지 제안부탁드립니다.
+금액은 5,000~12,000원 까지였으면 합니다.
+수량은 대략 100개 정도 예상합니다.
+그리고 제비뽑기로 5명 정도에게 경품을 지급하려고합니다.
+이것도 제안해주세요 금액은 개당 20만원 안으로 가능했으면 합니다.
+kyungha330@naver.com</t>
+        </is>
+      </c>
+      <c r="E194" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767189</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="4" t="inlineStr">
+        <is>
+          <t>어버이날 임직원 부모님 선물 추천 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="B195" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.19.</t>
+        </is>
+      </c>
+      <c r="C195" s="4" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="D195" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요 송파에 위치한 중소기업입니다.
+어버이날에 임직원 부모님에게 택배 배송으로 드릴 선물을 찾고 있습니다. 약 10만원 내외입니다.
+작년에는 정관장 홍삼톤을 했었는데 올해도 정관장을 해도 상관은 없을거 같습니다. (상품을 바꿔서)
+약 100명 정도 될거 같고 모두 개별 택배 배송입니다.
+추천 부탁드립니다^^ !!</t>
+        </is>
+      </c>
+      <c r="E195" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767105</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="4" t="inlineStr">
+        <is>
+          <t>5월 어버이날 선물 관련 제안 부탁 드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="B196" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.19.</t>
+        </is>
+      </c>
+      <c r="C196" s="4" t="inlineStr">
+        <is>
+          <t>15:54</t>
+        </is>
+      </c>
+      <c r="D196" s="6" t="inlineStr">
+        <is>
+          <t>주제는 어버이날 선물입니다.
+금액대가 작아서 견적 요청하기가 애매한데,
+우선 총 예산은 100만원 입니다.
+2만원이면 50개 주문
+3만원이면 30개 주문 할 계획입니다.
+쪽지로 견적주시면 감사하겠습니다!
+오늘도 좋은 하루 보내세요!~</t>
+        </is>
+      </c>
+      <c r="E196" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767103</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="4" t="inlineStr">
+        <is>
+          <t>창립기념일 행사 의견</t>
+        </is>
+      </c>
+      <c r="B197" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.19.</t>
+        </is>
+      </c>
+      <c r="C197" s="4" t="inlineStr">
+        <is>
+          <t>13:44</t>
+        </is>
+      </c>
+      <c r="D197" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요
+저희 회사가 곧 10주년을 앞두고 있는데,
+제가 이제 입사한지 막 1년되어 무엇을 준비할지 모르겠더라구요...(첫 회사)
+작년엔 5만원선물과 휴무드렸는데 10주년은 행사를 해야 할거같아서요..
+다들 기대하는 눈친데, 다같이 여행을 가자니 통솔하기가 힘들거 같고.. 행사는 진행해야겠고,,
+그래서 행사(시상진행)+기념품으로 좋은 의견들 있으시면 댓글로 알려주세요.!
+(체육대회 이야기 했다가 까였어요ㅠㅜ, 좋은 액티비티 같은거 없을까용..)
+회사 위치 : 서울시 강남구
+인원수 : 약 30명
+기념품 : 1인당 5만원 내외 (최대 10만원)
+우수직원 (3명) : 약 50만원 내외
+행사비 : 500만원 내
+감사합니다 :)</t>
+        </is>
+      </c>
+      <c r="E197" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/767034</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="4" t="inlineStr">
+        <is>
+          <t>채용박람회 기념품</t>
+        </is>
+      </c>
+      <c r="B198" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.18.</t>
+        </is>
+      </c>
+      <c r="C198" s="4" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="D198" s="6" t="inlineStr">
+        <is>
+          <t>오프라인으로 채용박람회를 진행하면서 취준생 대상으로 기념품을 제공하고자합니다.
+보통 USB나 볼펜같은거 나눠주는거 같던데 좋은 아이템 있으면 공유 부탁드립니다.
+단가 5000원 이하로 고려하고있습니다.</t>
+        </is>
+      </c>
+      <c r="E198" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/766757</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="4" t="inlineStr">
+        <is>
+          <t>행사 기념품 어떤게 좋을까요?</t>
+        </is>
+      </c>
+      <c r="B199" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.18.</t>
+        </is>
+      </c>
+      <c r="C199" s="4" t="inlineStr">
+        <is>
+          <t>13:39</t>
+        </is>
+      </c>
+      <c r="D199" s="6" t="inlineStr">
+        <is>
+          <t>참여 200명 정도
+예산 인당 2~3만원 정도 입니다.
+대상은 상공인 대표(50~70대)정도 입니다.
+과거
+1. 블랙야크 백팩
+2. 칫솔치약세트(오가닉치약세트)
+3. 가죽가방
+등
+등을 했었습니다. 관련하여 추천해주실만한 기념품이 있을까요?
+쪽지 및 메일로 제안해주셔도 됩니다.</t>
+        </is>
+      </c>
+      <c r="E199" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/766801</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="4" t="inlineStr">
+        <is>
+          <t>창립50주년 행사</t>
+        </is>
+      </c>
+      <c r="B200" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.17.</t>
+        </is>
+      </c>
+      <c r="C200" s="4" t="inlineStr">
+        <is>
+          <t>17:41</t>
+        </is>
+      </c>
+      <c r="D200" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요 임직원 50명 정도 되는 회사입니다.
+올해로 창립50주년을 맞는데, 행사 기획을 하는 중이거든요.
+송년회 모임처럼 그냥 직원과 거래처, 공연자들 불러서 저녁 식사 자리로 할 지
+아니면 가족 초청 행사로 할 지,
+체육대회를 할 지,,
+아직 안을 잡지 않아서 기획의 초기 단계인데요.
+뭔가 직원들에게 뜻깊은 자리를 만들고 기념품도 나눠주고 해서 애사심을 키울 수 있는 행사가 되었으면 좋겠는데요.
+좋은 아이디어 있으신 분들 제안 및 의견(댓글 포함) 부탁 드립니다.
+yon804@naver.com</t>
+        </is>
+      </c>
+      <c r="E200" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/766654</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="4" t="inlineStr">
+        <is>
+          <t>정년 퇴직자 선물?</t>
+        </is>
+      </c>
+      <c r="B201" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.17.</t>
+        </is>
+      </c>
+      <c r="C201" s="4" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="D201" s="6" t="inlineStr">
+        <is>
+          <t>저희회사에는 아직 정년퇴직자에 대해서 행사나 기념품등이 없습니다.
+장기근속자에 대해서 근속기간별 금 또는 현금을 지급하고 있습니다.
+여러분들의 회사에서는 어떤 선물과 행사를 진행하시나요?
+정년을 앞둔 근로자에게 공로패등을 이야기 하니 별로 필요없고 자리만 차지한다고 하네요 ㅠ.ㅠ
+어떤 선물과 이벤트가 좋을까요?</t>
+        </is>
+      </c>
+      <c r="E201" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/766633</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="4" t="inlineStr">
+        <is>
+          <t>사내근로복지기금으로 직원 출장용으로 노트북을 구매</t>
+        </is>
+      </c>
+      <c r="B202" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.17.</t>
+        </is>
+      </c>
+      <c r="C202" s="4" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
+      <c r="D202" s="6" t="inlineStr">
+        <is>
+          <t>제목과 같은 내용입니다.
+사내근로복지기금으로 직원 출장용으로 노트북을 구매 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E202" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/766569</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="4" t="inlineStr">
+        <is>
+          <t>행사 기념품 추천 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="B203" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.17.</t>
+        </is>
+      </c>
+      <c r="C203" s="4" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+      <c r="D203" s="6" t="inlineStr">
+        <is>
+          <t>다음 주에 회사에서 100여명 정도 외부인원 대상으로 행사를 진행하는데
+기념품을 어떤걸 준비하면 좋을까요
+기존에는 USB로 진행했다고 하는데, 사실 요즘 USB도 쓰는 사람이 많지 않은 것 같아서
+뭔가 조금 더 실용적인 기념품을 찾아보려고 합니다..!</t>
+        </is>
+      </c>
+      <c r="E203" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/766539</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="4" t="inlineStr">
+        <is>
+          <t>예비 정년 퇴직자 지원 복지? 혜택?</t>
+        </is>
+      </c>
+      <c r="B204" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.14.</t>
+        </is>
+      </c>
+      <c r="C204" s="4" t="inlineStr">
+        <is>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="D204" s="6" t="inlineStr">
+        <is>
+          <t>혹시 예비 정년 퇴직자를 위한 복지나 혜택이 따로 있으신가요?
+퇴직시 공로패, 기념품(금) 외 지원할 수 있는 것이 무엇일까 고민하고 있습니다.
+종합건강검진, 자기계발교육비 지원, 자녀 잔여학기 학자금 지원, 특별 예산 편성(개인 송별회 또는 가족여행 경비) 등
+돈으로 해결하는 것 외에는 생각이 잘 나질 않아서 여쭙니다.</t>
+        </is>
+      </c>
+      <c r="E204" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/766356</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="4" t="inlineStr">
+        <is>
+          <t>워크샵 기념품 제안 요청</t>
+        </is>
+      </c>
+      <c r="B205" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.14.</t>
+        </is>
+      </c>
+      <c r="C205" s="4" t="inlineStr">
+        <is>
+          <t>08:16</t>
+        </is>
+      </c>
+      <c r="D205" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요
+워크샵 참가인원은 80명(대부분 40~50대)이고
+기념품을 개당 10만원 미만으로 정하려고합니다.
+기념품제안서 부탁드립니다.
+umkim8910@naver.com</t>
+        </is>
+      </c>
+      <c r="E205" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/766274</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="4" t="inlineStr">
+        <is>
+          <t>회사 창립기념일 선물 견적 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="B206" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.12.</t>
+        </is>
+      </c>
+      <c r="C206" s="4" t="inlineStr">
+        <is>
+          <t>14:01</t>
+        </is>
+      </c>
+      <c r="D206" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요~ 창립기념일 기념품으로 행사후 지급해드릴 간단한 선물을 알아보고 있습니다.
+이메일로 견적서 보내주시면 감사하겠습니다.
+-인원 : 101~110개 내외 (직원 101명만 진행할수도 있음)
+- 예산 : 10,000 ~15,000원(1인)
+- 수건 2개세트, 3개세트로 진행하고 싶습니다.
+다른 큰선물을 준비해놓은 상태라 이건 행사 이후 집에 돌아가실때 빈손으로 돌아가기
+그래서 준비하는 작은 선물이라 가볍고 부피도 크지않고 활용도 면에서 좋은것으로 생각했습니다.
+혹시 그 예산에 더 좋은게 있다면 같이 추천부탁드립니다.
+- 수건의 경우 자수로 회사명과 창립몇주년도 진행하며, 종이상자에 들어간 세트로 손잡이가 달린 상자 또는 쇼핑백포함 견적으로 부탁드립니다. (자수비, 손잡이 상자비 or 상자+쇼핑백비)
+다른제품의 경우도 쇼핑백 포함 견적 부탁드립니다.
+- 기존에 체중계, 고속충전기, 보조배터리 이런건 해봤습니다. 제외 바랍니다.
+- EMAIL 주소 : s783200@naver.com</t>
+        </is>
+      </c>
+      <c r="E206" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/765945</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="4" t="inlineStr">
+        <is>
+          <t>창립 10주년 행사 문의드립니다.</t>
+        </is>
+      </c>
+      <c r="B207" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.10.</t>
+        </is>
+      </c>
+      <c r="C207" s="4" t="inlineStr">
+        <is>
+          <t>19:09</t>
+        </is>
+      </c>
+      <c r="D207" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요.
+창립 10주년 행사 및 기념품 문의드립니다.
+인원은 25명정도 되는 회사 입니다.
+20~30대로 이루어져있습니다.
+zkkiopz@naver.com 이메일로 견적 부탁드립니다!</t>
+        </is>
+      </c>
+      <c r="E207" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/765604</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="4" t="inlineStr">
+        <is>
+          <t>워크숍 기념품 제안 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="B208" s="5" t="inlineStr">
+        <is>
+          <t>2023.04.09.</t>
+        </is>
+      </c>
+      <c r="C208" s="4" t="inlineStr">
+        <is>
+          <t>23:02</t>
+        </is>
+      </c>
+      <c r="D208" s="6" t="inlineStr">
+        <is>
+          <t>안녕하세요~!
+직원수가 많아 매년 조금씩 (전사 중 1,000명씩 대상)
+조직문화 융합 워크숍을 시행하고 있습니다.
+리조트에서 1박2일 진행되는 워크숍인데,
+ESG와 연관지어 기념품을 지급하고자 하는데요.
+올해 주문량은 800-900개 예상되고요.
+VAT 포함 13,000원 이내 추천 부탁드립니다.
+회사마크, 행사명 등 어딘가에 인쇄도 가능해야 합니다.
+책자 pdf 통째로 보내실 필요 없습니다.
+이미 많이 받아놔서요~
+k123culture@gmail.com
+친환경, 일회용품 사용자제 등과 엮을 수 있는
+제품이면 좋겠습니다^^ 감사합니다.</t>
+        </is>
+      </c>
+      <c r="E208" s="5" t="inlineStr">
+        <is>
+          <t>https://cafe.naver.com/ak573/765383</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="4" t="n"/>
+      <c r="B209" s="5" t="n"/>
+      <c r="C209" s="4" t="n"/>
+      <c r="D209" s="6" t="n"/>
+      <c r="E209" s="5" t="n"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="4" t="n"/>
+      <c r="C210" s="4" t="n"/>
+      <c r="D210" s="6" t="n"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="4" t="n"/>
+      <c r="D211" s="6" t="n"/>
+    </row>
+    <row r="212">
+      <c r="D212" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
